--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>Course</t>
   </si>
@@ -115,7 +115,25 @@
     <t>ATMO-202</t>
   </si>
   <si>
-    <t>35.90%</t>
+    <t>32.50%</t>
+  </si>
+  <si>
+    <t>48.13%</t>
+  </si>
+  <si>
+    <t>16.88%</t>
+  </si>
+  <si>
+    <t>1.87%</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>ATMO-203</t>
+  </si>
+  <si>
+    <t>38.46%</t>
   </si>
   <si>
     <t>46.15%</t>
@@ -124,507 +142,504 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>ATMO-251</t>
+  </si>
+  <si>
+    <t>39.39%</t>
+  </si>
+  <si>
+    <t>21.21%</t>
+  </si>
+  <si>
+    <t>ATMO-321</t>
+  </si>
+  <si>
+    <t>SZUNYOGH I</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>ATMO-335</t>
+  </si>
+  <si>
+    <t>NORTH J</t>
+  </si>
+  <si>
+    <t>26.09%</t>
+  </si>
+  <si>
+    <t>39.13%</t>
+  </si>
+  <si>
+    <t>34.78%</t>
+  </si>
+  <si>
+    <t>ATMO-336</t>
+  </si>
+  <si>
+    <t>KORTY R</t>
+  </si>
+  <si>
+    <t>24.00%</t>
+  </si>
+  <si>
+    <t>44.00%</t>
+  </si>
+  <si>
+    <t>ATMO-363</t>
+  </si>
+  <si>
+    <t>SCHADE G</t>
+  </si>
+  <si>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>26.19%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>2.38%</t>
+  </si>
+  <si>
+    <t>ATMO-443</t>
+  </si>
+  <si>
+    <t>NOWOTARSKI C</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>45.71%</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
+    <t>ATMO-446</t>
+  </si>
+  <si>
+    <t>RAPP A</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>47.37%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>ATMO-459</t>
+  </si>
+  <si>
+    <t>SARAVANAN R</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>SCHUMACHER C</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>ATMO-485</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>ATMO-601</t>
+  </si>
+  <si>
+    <t>PANETTA R</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>ATMO-602</t>
+  </si>
+  <si>
+    <t>DESSLER A</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>47.83%</t>
+  </si>
+  <si>
+    <t>21.74%</t>
+  </si>
+  <si>
+    <t>ATMO-606</t>
+  </si>
+  <si>
+    <t>ZHANG R</t>
+  </si>
+  <si>
+    <t>52.17%</t>
+  </si>
+  <si>
+    <t>17.39%</t>
+  </si>
+  <si>
+    <t>ATMO-664</t>
+  </si>
+  <si>
+    <t>BROOKS S</t>
+  </si>
+  <si>
+    <t>ATMO-689</t>
+  </si>
+  <si>
+    <t>LEMMON M</t>
+  </si>
+  <si>
+    <t>GEOG-201</t>
+  </si>
+  <si>
+    <t>JEPSON W</t>
+  </si>
+  <si>
+    <t>14.58%</t>
+  </si>
+  <si>
+    <t>50.11%</t>
+  </si>
+  <si>
+    <t>28.47%</t>
+  </si>
+  <si>
+    <t>5.47%</t>
+  </si>
+  <si>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>EWERS M</t>
+  </si>
+  <si>
+    <t>15.60%</t>
+  </si>
+  <si>
+    <t>45.39%</t>
+  </si>
+  <si>
+    <t>31.91%</t>
+  </si>
+  <si>
+    <t>6.38%</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>GEOG-202</t>
+  </si>
+  <si>
+    <t>PROUT E</t>
+  </si>
+  <si>
+    <t>37.63%</t>
+  </si>
+  <si>
+    <t>36.13%</t>
+  </si>
+  <si>
+    <t>17.20%</t>
+  </si>
+  <si>
+    <t>6.02%</t>
+  </si>
+  <si>
+    <t>3.01%</t>
+  </si>
+  <si>
+    <t>PATZEWITSCH W</t>
+  </si>
+  <si>
+    <t>36.45%</t>
+  </si>
+  <si>
+    <t>34.15%</t>
+  </si>
+  <si>
+    <t>23.12%</t>
+  </si>
+  <si>
+    <t>5.51%</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>NAM S</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>29.17%</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
+    <t>HUGILL P</t>
+  </si>
+  <si>
+    <t>26.74%</t>
+  </si>
+  <si>
+    <t>38.72%</t>
+  </si>
+  <si>
+    <t>27.58%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>GEOG-203</t>
+  </si>
+  <si>
+    <t>NAITO A</t>
+  </si>
+  <si>
+    <t>22.70%</t>
+  </si>
+  <si>
+    <t>47.04%</t>
+  </si>
+  <si>
+    <t>18.09%</t>
+  </si>
+  <si>
+    <t>8.22%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>CHEN L</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>LAFON C</t>
+  </si>
+  <si>
+    <t>31.51%</t>
+  </si>
+  <si>
+    <t>36.99%</t>
+  </si>
+  <si>
+    <t>21.92%</t>
+  </si>
+  <si>
+    <t>6.16%</t>
+  </si>
+  <si>
+    <t>3.42%</t>
+  </si>
+  <si>
+    <t>FRAUENFELD O</t>
+  </si>
+  <si>
+    <t>22.79%</t>
+  </si>
+  <si>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>23.53%</t>
+  </si>
+  <si>
+    <t>9.56%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
+    <t>GUNERALP I</t>
+  </si>
+  <si>
+    <t>12.80%</t>
+  </si>
+  <si>
+    <t>40.80%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>GEOG-213</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>7.68%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>GEOG-301</t>
+  </si>
+  <si>
+    <t>21.03%</t>
+  </si>
+  <si>
+    <t>33.64%</t>
+  </si>
+  <si>
+    <t>36.92%</t>
+  </si>
+  <si>
+    <t>8.41%</t>
+  </si>
+  <si>
+    <t>GEOG-304</t>
+  </si>
+  <si>
+    <t>WALENTA J</t>
+  </si>
+  <si>
+    <t>30.11%</t>
+  </si>
+  <si>
+    <t>46.24%</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>5.38%</t>
+  </si>
+  <si>
+    <t>GEOG-305</t>
+  </si>
+  <si>
+    <t>42.59%</t>
+  </si>
+  <si>
+    <t>29.63%</t>
+  </si>
+  <si>
+    <t>18.52%</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>GEOG-306</t>
+  </si>
+  <si>
+    <t>BEDNARZ R</t>
+  </si>
+  <si>
+    <t>30.36%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>GEOG-309</t>
+  </si>
+  <si>
+    <t>BRANNSTROM C</t>
+  </si>
+  <si>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>GEOG-311</t>
+  </si>
+  <si>
+    <t>SMITH J</t>
+  </si>
+  <si>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>32.05%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
     <t>2.56%</t>
   </si>
   <si>
-    <t>ATMO-203</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>ATMO-251</t>
-  </si>
-  <si>
-    <t>39.39%</t>
-  </si>
-  <si>
-    <t>21.21%</t>
-  </si>
-  <si>
-    <t>ATMO-321</t>
-  </si>
-  <si>
-    <t>SZUNYOGH I</t>
-  </si>
-  <si>
-    <t>45.45%</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>ATMO-335</t>
-  </si>
-  <si>
-    <t>NORTH J</t>
-  </si>
-  <si>
-    <t>26.09%</t>
-  </si>
-  <si>
-    <t>39.13%</t>
-  </si>
-  <si>
-    <t>34.78%</t>
-  </si>
-  <si>
-    <t>ATMO-336</t>
-  </si>
-  <si>
-    <t>KORTY R</t>
-  </si>
-  <si>
-    <t>24.00%</t>
-  </si>
-  <si>
-    <t>44.00%</t>
-  </si>
-  <si>
-    <t>ATMO-363</t>
-  </si>
-  <si>
-    <t>SCHADE G</t>
-  </si>
-  <si>
-    <t>9.52%</t>
-  </si>
-  <si>
-    <t>26.19%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>ATMO-443</t>
-  </si>
-  <si>
-    <t>NOWOTARSKI C</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>45.71%</t>
-  </si>
-  <si>
-    <t>25.71%</t>
-  </si>
-  <si>
-    <t>ATMO-446</t>
-  </si>
-  <si>
-    <t>RAPP A</t>
-  </si>
-  <si>
-    <t>21.05%</t>
-  </si>
-  <si>
-    <t>47.37%</t>
-  </si>
-  <si>
-    <t>26.32%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>ATMO-459</t>
-  </si>
-  <si>
-    <t>SARAVANAN R</t>
-  </si>
-  <si>
-    <t>27.78%</t>
-  </si>
-  <si>
-    <t>55.56%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>SCHUMACHER C</t>
-  </si>
-  <si>
-    <t>40.00%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>ATMO-485</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>ATMO-601</t>
-  </si>
-  <si>
-    <t>PANETTA R</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>ATMO-602</t>
-  </si>
-  <si>
-    <t>DESSLER A</t>
-  </si>
-  <si>
-    <t>30.43%</t>
-  </si>
-  <si>
-    <t>47.83%</t>
-  </si>
-  <si>
-    <t>21.74%</t>
-  </si>
-  <si>
-    <t>ATMO-606</t>
-  </si>
-  <si>
-    <t>ZHANG R</t>
-  </si>
-  <si>
-    <t>52.17%</t>
-  </si>
-  <si>
-    <t>17.39%</t>
-  </si>
-  <si>
-    <t>ATMO-664</t>
-  </si>
-  <si>
-    <t>BROOKS S</t>
-  </si>
-  <si>
-    <t>ATMO-689</t>
-  </si>
-  <si>
-    <t>LEMMON M</t>
-  </si>
-  <si>
-    <t>GEOG-201</t>
-  </si>
-  <si>
-    <t>JEPSON W</t>
-  </si>
-  <si>
-    <t>14.58%</t>
-  </si>
-  <si>
-    <t>50.11%</t>
-  </si>
-  <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>5.47%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>EWERS M</t>
-  </si>
-  <si>
-    <t>15.60%</t>
-  </si>
-  <si>
-    <t>45.39%</t>
-  </si>
-  <si>
-    <t>31.91%</t>
-  </si>
-  <si>
-    <t>6.38%</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>GEOG-202</t>
-  </si>
-  <si>
-    <t>PROUT E</t>
-  </si>
-  <si>
-    <t>36.87%</t>
-  </si>
-  <si>
-    <t>38.71%</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>5.99%</t>
-  </si>
-  <si>
-    <t>4.15%</t>
-  </si>
-  <si>
-    <t>PATZEWITSCH W</t>
-  </si>
-  <si>
-    <t>36.45%</t>
-  </si>
-  <si>
-    <t>34.15%</t>
-  </si>
-  <si>
-    <t>23.12%</t>
-  </si>
-  <si>
-    <t>5.51%</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>NAM S</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>29.17%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
-  </si>
-  <si>
-    <t>HUGILL P</t>
-  </si>
-  <si>
-    <t>26.74%</t>
-  </si>
-  <si>
-    <t>38.72%</t>
-  </si>
-  <si>
-    <t>27.58%</t>
-  </si>
-  <si>
-    <t>6.69%</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>GEOG-203</t>
-  </si>
-  <si>
-    <t>NAITO A</t>
-  </si>
-  <si>
-    <t>22.70%</t>
-  </si>
-  <si>
-    <t>47.04%</t>
-  </si>
-  <si>
-    <t>18.09%</t>
-  </si>
-  <si>
-    <t>8.22%</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>CHEN L</t>
-  </si>
-  <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>LAFON C</t>
-  </si>
-  <si>
-    <t>31.51%</t>
-  </si>
-  <si>
-    <t>36.99%</t>
-  </si>
-  <si>
-    <t>21.92%</t>
-  </si>
-  <si>
-    <t>6.16%</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>FRAUENFELD O</t>
-  </si>
-  <si>
-    <t>22.79%</t>
-  </si>
-  <si>
-    <t>41.18%</t>
-  </si>
-  <si>
-    <t>23.53%</t>
-  </si>
-  <si>
-    <t>9.56%</t>
-  </si>
-  <si>
-    <t>2.94%</t>
-  </si>
-  <si>
-    <t>GUNERALP I</t>
-  </si>
-  <si>
-    <t>12.80%</t>
-  </si>
-  <si>
-    <t>40.80%</t>
-  </si>
-  <si>
-    <t>32.80%</t>
-  </si>
-  <si>
-    <t>0.80%</t>
-  </si>
-  <si>
-    <t>GEOG-213</t>
-  </si>
-  <si>
-    <t>63.12%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>6.93%</t>
-  </si>
-  <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>GEOG-301</t>
-  </si>
-  <si>
-    <t>21.03%</t>
-  </si>
-  <si>
-    <t>33.64%</t>
-  </si>
-  <si>
-    <t>36.92%</t>
-  </si>
-  <si>
-    <t>8.41%</t>
-  </si>
-  <si>
-    <t>GEOG-304</t>
-  </si>
-  <si>
-    <t>WALENTA J</t>
-  </si>
-  <si>
-    <t>30.11%</t>
-  </si>
-  <si>
-    <t>46.24%</t>
-  </si>
-  <si>
-    <t>17.20%</t>
-  </si>
-  <si>
-    <t>1.08%</t>
-  </si>
-  <si>
-    <t>5.38%</t>
-  </si>
-  <si>
-    <t>GEOG-305</t>
-  </si>
-  <si>
-    <t>42.59%</t>
-  </si>
-  <si>
-    <t>29.63%</t>
-  </si>
-  <si>
-    <t>18.52%</t>
-  </si>
-  <si>
-    <t>5.56%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>GEOG-306</t>
-  </si>
-  <si>
-    <t>BEDNARZ R</t>
-  </si>
-  <si>
-    <t>30.36%</t>
-  </si>
-  <si>
-    <t>37.50%</t>
-  </si>
-  <si>
-    <t>GEOG-309</t>
-  </si>
-  <si>
-    <t>BRANNSTROM C</t>
-  </si>
-  <si>
-    <t>38.89%</t>
-  </si>
-  <si>
-    <t>GEOG-311</t>
-  </si>
-  <si>
-    <t>SMITH J</t>
-  </si>
-  <si>
-    <t>23.08%</t>
-  </si>
-  <si>
-    <t>32.05%</t>
-  </si>
-  <si>
-    <t>8.97%</t>
-  </si>
-  <si>
     <t>GEOG-320</t>
   </si>
   <si>
@@ -853,85 +868,85 @@
     <t>GIBSON R</t>
   </si>
   <si>
-    <t>20.25%</t>
-  </si>
-  <si>
-    <t>50.63%</t>
-  </si>
-  <si>
-    <t>5.06%</t>
-  </si>
-  <si>
-    <t>3.80%</t>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>46.79%</t>
+  </si>
+  <si>
+    <t>6.41%</t>
+  </si>
+  <si>
+    <t>YANCEY T</t>
+  </si>
+  <si>
+    <t>21.38%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>2.76%</t>
+  </si>
+  <si>
+    <t>1.38%</t>
+  </si>
+  <si>
+    <t>VAN B</t>
+  </si>
+  <si>
+    <t>28.85%</t>
+  </si>
+  <si>
+    <t>3.21%</t>
+  </si>
+  <si>
+    <t>NEWMAN J</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>BENAVIDES I</t>
+  </si>
+  <si>
+    <t>38.85%</t>
+  </si>
+  <si>
+    <t>45.22%</t>
+  </si>
+  <si>
+    <t>14.01%</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>0.64%</t>
   </si>
   <si>
     <t>SCHROEDER C</t>
   </si>
   <si>
-    <t>16.81%</t>
-  </si>
-  <si>
-    <t>53.10%</t>
-  </si>
-  <si>
-    <t>24.78%</t>
-  </si>
-  <si>
-    <t>3.54%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>YANCEY T</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>68.75%</t>
-  </si>
-  <si>
-    <t>VAN B</t>
-  </si>
-  <si>
-    <t>18.38%</t>
-  </si>
-  <si>
-    <t>40.44%</t>
-  </si>
-  <si>
-    <t>30.88%</t>
-  </si>
-  <si>
-    <t>7.35%</t>
-  </si>
-  <si>
-    <t>BENAVIDES I</t>
-  </si>
-  <si>
-    <t>39.42%</t>
-  </si>
-  <si>
-    <t>43.80%</t>
-  </si>
-  <si>
-    <t>14.60%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
-  </si>
-  <si>
-    <t>0.73%</t>
-  </si>
-  <si>
-    <t>NEWMAN J</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
+    <t>17.76%</t>
+  </si>
+  <si>
+    <t>54.61%</t>
+  </si>
+  <si>
+    <t>21.71%</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
   </si>
   <si>
     <t>GEOL-104</t>
@@ -940,19 +955,19 @@
     <t>CHESTER F</t>
   </si>
   <si>
-    <t>14.63%</t>
-  </si>
-  <si>
-    <t>41.46%</t>
-  </si>
-  <si>
-    <t>30.89%</t>
-  </si>
-  <si>
-    <t>10.57%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
+    <t>19.11%</t>
+  </si>
+  <si>
+    <t>41.40%</t>
+  </si>
+  <si>
+    <t>28.03%</t>
+  </si>
+  <si>
+    <t>8.92%</t>
+  </si>
+  <si>
+    <t>2.55%</t>
   </si>
   <si>
     <t>EVERETT M</t>
@@ -970,402 +985,456 @@
     <t>GEOL-106</t>
   </si>
   <si>
-    <t>13.70%</t>
-  </si>
-  <si>
-    <t>47.95%</t>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>54.46%</t>
+  </si>
+  <si>
+    <t>2.68%</t>
+  </si>
+  <si>
+    <t>GEOL-203</t>
+  </si>
+  <si>
+    <t>KRONENBERG A</t>
+  </si>
+  <si>
+    <t>11.61%</t>
+  </si>
+  <si>
+    <t>34.82%</t>
+  </si>
+  <si>
+    <t>33.04%</t>
+  </si>
+  <si>
+    <t>16.07%</t>
+  </si>
+  <si>
+    <t>4.46%</t>
+  </si>
+  <si>
+    <t>GEOL-302</t>
+  </si>
+  <si>
+    <t>MILLER B</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>52.00%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>GEOL-304</t>
+  </si>
+  <si>
+    <t>LAMB W</t>
+  </si>
+  <si>
+    <t>12.66%</t>
+  </si>
+  <si>
+    <t>45.57%</t>
+  </si>
+  <si>
+    <t>29.11%</t>
+  </si>
+  <si>
+    <t>GEOL-305</t>
+  </si>
+  <si>
+    <t>RAYMOND A</t>
+  </si>
+  <si>
+    <t>9.26%</t>
+  </si>
+  <si>
+    <t>53.70%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>GEOL-306</t>
+  </si>
+  <si>
+    <t>POPE M</t>
+  </si>
+  <si>
+    <t>17.31%</t>
+  </si>
+  <si>
+    <t>44.23%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>GEOL-309</t>
+  </si>
+  <si>
+    <t>HEANEY M</t>
+  </si>
+  <si>
+    <t>46.43%</t>
+  </si>
+  <si>
+    <t>5.36%</t>
+  </si>
+  <si>
+    <t>GEOL-311</t>
+  </si>
+  <si>
+    <t>REECE J</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>52.63%</t>
+  </si>
+  <si>
+    <t>17.65%</t>
+  </si>
+  <si>
+    <t>76.47%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>GEOL-312</t>
+  </si>
+  <si>
+    <t>CHESTER J</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>GEOL-330</t>
+  </si>
+  <si>
+    <t>HAJASH A</t>
+  </si>
+  <si>
+    <t>90.63%</t>
+  </si>
+  <si>
+    <t>GEOL-352</t>
+  </si>
+  <si>
+    <t>GEOL-404</t>
+  </si>
+  <si>
+    <t>SUN Y</t>
+  </si>
+  <si>
+    <t>30.57%</t>
+  </si>
+  <si>
+    <t>47.77%</t>
+  </si>
+  <si>
+    <t>20.38%</t>
+  </si>
+  <si>
+    <t>GEOL-410</t>
+  </si>
+  <si>
+    <t>ZHAN H</t>
+  </si>
+  <si>
+    <t>34.29%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
+    <t>2.86%</t>
+  </si>
+  <si>
+    <t>GEOL-440</t>
+  </si>
+  <si>
+    <t>HOPF F</t>
+  </si>
+  <si>
+    <t>63.16%</t>
+  </si>
+  <si>
+    <t>GEOL-491</t>
+  </si>
+  <si>
+    <t>TICE M</t>
+  </si>
+  <si>
+    <t>GEOL-614</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>GEOL-624</t>
+  </si>
+  <si>
+    <t>LAYA P</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>GEOL-635</t>
+  </si>
+  <si>
+    <t>GEOL-640</t>
+  </si>
+  <si>
+    <t>MARCANTONIO F</t>
+  </si>
+  <si>
+    <t>92.31%</t>
+  </si>
+  <si>
+    <t>GEOL-645</t>
+  </si>
+  <si>
+    <t>87.50%</t>
+  </si>
+  <si>
+    <t>GEOL-658</t>
+  </si>
+  <si>
+    <t>GROSSMAN E</t>
+  </si>
+  <si>
+    <t>GEOL-668</t>
+  </si>
+  <si>
+    <t>GIARDINO J</t>
+  </si>
+  <si>
+    <t>GEOL-689</t>
+  </si>
+  <si>
+    <t>KNAPPETT P</t>
+  </si>
+  <si>
+    <t>GEOP-341</t>
+  </si>
+  <si>
+    <t>SPARKS D</t>
+  </si>
+  <si>
+    <t>12.10%</t>
+  </si>
+  <si>
+    <t>48.39%</t>
+  </si>
+  <si>
+    <t>29.84%</t>
+  </si>
+  <si>
+    <t>9.68%</t>
+  </si>
+  <si>
+    <t>GEOP-413</t>
+  </si>
+  <si>
+    <t>72.00%</t>
+  </si>
+  <si>
+    <t>GEOP-421</t>
+  </si>
+  <si>
+    <t>GEOP-435</t>
+  </si>
+  <si>
+    <t>CARLSON R</t>
+  </si>
+  <si>
+    <t>40.74%</t>
+  </si>
+  <si>
+    <t>37.04%</t>
+  </si>
+  <si>
+    <t>GEOP-491</t>
+  </si>
+  <si>
+    <t>GEOP-615</t>
+  </si>
+  <si>
+    <t>KITAJIMA H</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>GEOP-628</t>
+  </si>
+  <si>
+    <t>64.29%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
+  </si>
+  <si>
+    <t>GEOP-629</t>
+  </si>
+  <si>
+    <t>REECE R</t>
+  </si>
+  <si>
+    <t>GEOP-689</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>GEOS-101</t>
+  </si>
+  <si>
+    <t>FORD T</t>
+  </si>
+  <si>
+    <t>THORNTON D</t>
+  </si>
+  <si>
+    <t>91.67%</t>
+  </si>
+  <si>
+    <t>THOMAS D</t>
+  </si>
+  <si>
+    <t>CHAPMAN P</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>94.52%</t>
   </si>
   <si>
     <t>4.11%</t>
   </si>
   <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>GEOL-203</t>
-  </si>
-  <si>
-    <t>KRONENBERG A</t>
-  </si>
-  <si>
-    <t>11.61%</t>
-  </si>
-  <si>
-    <t>34.82%</t>
-  </si>
-  <si>
-    <t>33.04%</t>
-  </si>
-  <si>
-    <t>16.07%</t>
-  </si>
-  <si>
-    <t>4.46%</t>
-  </si>
-  <si>
-    <t>GEOL-302</t>
-  </si>
-  <si>
-    <t>MILLER B</t>
-  </si>
-  <si>
-    <t>53.85%</t>
-  </si>
-  <si>
-    <t>GEOL-304</t>
-  </si>
-  <si>
-    <t>LAMB W</t>
-  </si>
-  <si>
-    <t>12.66%</t>
-  </si>
-  <si>
-    <t>45.57%</t>
-  </si>
-  <si>
-    <t>29.11%</t>
-  </si>
-  <si>
-    <t>GEOL-305</t>
-  </si>
-  <si>
-    <t>RAYMOND A</t>
-  </si>
-  <si>
-    <t>GEOL-306</t>
-  </si>
-  <si>
-    <t>POPE M</t>
-  </si>
-  <si>
-    <t>17.31%</t>
-  </si>
-  <si>
-    <t>44.23%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>GEOL-309</t>
-  </si>
-  <si>
-    <t>HEANEY M</t>
-  </si>
-  <si>
-    <t>10.71%</t>
-  </si>
-  <si>
-    <t>46.43%</t>
-  </si>
-  <si>
-    <t>5.36%</t>
-  </si>
-  <si>
-    <t>GEOL-311</t>
-  </si>
-  <si>
-    <t>GEOL-312</t>
-  </si>
-  <si>
-    <t>CHESTER J</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>GEOL-330</t>
-  </si>
-  <si>
-    <t>HAJASH A</t>
-  </si>
-  <si>
-    <t>90.63%</t>
-  </si>
-  <si>
-    <t>GEOL-352</t>
-  </si>
-  <si>
-    <t>GEOL-404</t>
-  </si>
-  <si>
-    <t>SUN Y</t>
-  </si>
-  <si>
-    <t>30.57%</t>
-  </si>
-  <si>
-    <t>47.77%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>GEOL-410</t>
-  </si>
-  <si>
-    <t>ZHAN H</t>
-  </si>
-  <si>
-    <t>34.29%</t>
-  </si>
-  <si>
-    <t>5.71%</t>
-  </si>
-  <si>
-    <t>2.86%</t>
-  </si>
-  <si>
-    <t>GEOL-440</t>
-  </si>
-  <si>
-    <t>HOPF F</t>
-  </si>
-  <si>
-    <t>63.16%</t>
-  </si>
-  <si>
-    <t>GEOL-614</t>
-  </si>
-  <si>
-    <t>77.78%</t>
-  </si>
-  <si>
-    <t>GEOL-624</t>
-  </si>
-  <si>
-    <t>LAYA P</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>GEOL-635</t>
-  </si>
-  <si>
-    <t>GEOL-640</t>
-  </si>
-  <si>
-    <t>MARCANTONIO F</t>
-  </si>
-  <si>
-    <t>92.31%</t>
-  </si>
-  <si>
-    <t>GEOL-645</t>
-  </si>
-  <si>
-    <t>87.50%</t>
-  </si>
-  <si>
-    <t>GEOL-658</t>
-  </si>
-  <si>
-    <t>GROSSMAN E</t>
-  </si>
-  <si>
-    <t>GEOL-668</t>
-  </si>
-  <si>
-    <t>GIARDINO J</t>
-  </si>
-  <si>
-    <t>GEOL-689</t>
-  </si>
-  <si>
-    <t>KNAPPETT P</t>
-  </si>
-  <si>
-    <t>GEOP-341</t>
-  </si>
-  <si>
-    <t>SPARKS D</t>
-  </si>
-  <si>
-    <t>14.13%</t>
-  </si>
-  <si>
-    <t>45.65%</t>
+    <t>KULHANEK D</t>
+  </si>
+  <si>
+    <t>61.54%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>LEVAY L</t>
+  </si>
+  <si>
+    <t>BROOKS D</t>
+  </si>
+  <si>
+    <t>94.44%</t>
+  </si>
+  <si>
+    <t>BEDNARZ S</t>
+  </si>
+  <si>
+    <t>GEOS-105</t>
+  </si>
+  <si>
+    <t>14.47%</t>
+  </si>
+  <si>
+    <t>38.16%</t>
+  </si>
+  <si>
+    <t>40.79%</t>
+  </si>
+  <si>
+    <t>6.58%</t>
+  </si>
+  <si>
+    <t>GEOS-210</t>
+  </si>
+  <si>
+    <t>16.98%</t>
+  </si>
+  <si>
+    <t>43.40%</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>GEOS-405</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>46.67%</t>
+  </si>
+  <si>
+    <t>GEOS-410</t>
+  </si>
+  <si>
+    <t>GEOS-470</t>
+  </si>
+  <si>
+    <t>DIMARCO S</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>35.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>GEOS-481</t>
+  </si>
+  <si>
+    <t>RICHARDSON M</t>
+  </si>
+  <si>
+    <t>64.00%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>16.00%</t>
+  </si>
+  <si>
+    <t>GEOS-484</t>
+  </si>
+  <si>
+    <t>OCNG-251</t>
+  </si>
+  <si>
+    <t>38.74%</t>
+  </si>
+  <si>
+    <t>21.62%</t>
+  </si>
+  <si>
+    <t>6.31%</t>
+  </si>
+  <si>
+    <t>EVANS M</t>
   </si>
   <si>
     <t>28.26%</t>
   </si>
   <si>
-    <t>11.96%</t>
-  </si>
-  <si>
-    <t>GEOP-413</t>
-  </si>
-  <si>
-    <t>72.00%</t>
-  </si>
-  <si>
-    <t>8.00%</t>
-  </si>
-  <si>
-    <t>GEOP-421</t>
-  </si>
-  <si>
-    <t>GEOP-435</t>
-  </si>
-  <si>
-    <t>CARLSON R</t>
-  </si>
-  <si>
-    <t>40.74%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>GEOP-491</t>
-  </si>
-  <si>
-    <t>GEOP-615</t>
-  </si>
-  <si>
-    <t>KITAJIMA H</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>GEOP-628</t>
-  </si>
-  <si>
-    <t>64.29%</t>
-  </si>
-  <si>
-    <t>35.71%</t>
-  </si>
-  <si>
-    <t>GEOP-629</t>
-  </si>
-  <si>
-    <t>REECE R</t>
-  </si>
-  <si>
-    <t>GEOP-689</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>GEOS-101</t>
-  </si>
-  <si>
-    <t>THORNTON D</t>
-  </si>
-  <si>
-    <t>91.67%</t>
-  </si>
-  <si>
-    <t>KULHANEK D</t>
-  </si>
-  <si>
-    <t>61.54%</t>
-  </si>
-  <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>BROOKS D</t>
-  </si>
-  <si>
-    <t>BEDNARZ S</t>
-  </si>
-  <si>
-    <t>GEOS-105</t>
-  </si>
-  <si>
-    <t>14.47%</t>
-  </si>
-  <si>
-    <t>38.16%</t>
-  </si>
-  <si>
-    <t>40.79%</t>
-  </si>
-  <si>
-    <t>6.58%</t>
-  </si>
-  <si>
-    <t>GEOS-210</t>
-  </si>
-  <si>
-    <t>16.98%</t>
-  </si>
-  <si>
-    <t>43.40%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>GEOS-405</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>46.67%</t>
-  </si>
-  <si>
-    <t>GEOS-410</t>
-  </si>
-  <si>
-    <t>GEOS-470</t>
-  </si>
-  <si>
-    <t>DIMARCO S</t>
-  </si>
-  <si>
-    <t>15.00%</t>
-  </si>
-  <si>
-    <t>35.00%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>GEOS-481</t>
-  </si>
-  <si>
-    <t>RICHARDSON M</t>
-  </si>
-  <si>
-    <t>64.00%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>16.00%</t>
-  </si>
-  <si>
-    <t>GEOS-484</t>
-  </si>
-  <si>
-    <t>OCNG-251</t>
-  </si>
-  <si>
-    <t>38.74%</t>
-  </si>
-  <si>
-    <t>21.62%</t>
-  </si>
-  <si>
-    <t>6.31%</t>
-  </si>
-  <si>
-    <t>EVANS M</t>
-  </si>
-  <si>
     <t>31.52%</t>
   </si>
   <si>
@@ -1375,9 +1444,6 @@
     <t>7.61%</t>
   </si>
   <si>
-    <t>CHAPMAN P</t>
-  </si>
-  <si>
     <t>21.11%</t>
   </si>
   <si>
@@ -1423,19 +1489,19 @@
     <t>OCNG-252</t>
   </si>
   <si>
-    <t>69.29%</t>
-  </si>
-  <si>
-    <t>22.27%</t>
-  </si>
-  <si>
-    <t>6.11%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.02%</t>
+    <t>68.81%</t>
+  </si>
+  <si>
+    <t>22.90%</t>
+  </si>
+  <si>
+    <t>5.94%</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
   </si>
   <si>
     <t>OCNG-401</t>
@@ -1447,6 +1513,15 @@
     <t>80.49%</t>
   </si>
   <si>
+    <t>OCNG-410</t>
+  </si>
+  <si>
+    <t>STOESSEL A</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>OCNG-420</t>
   </si>
   <si>
@@ -1454,9 +1529,6 @@
   </si>
   <si>
     <t>OCNG-608</t>
-  </si>
-  <si>
-    <t>STOESSEL A</t>
   </si>
   <si>
     <t>55.00%</t>
@@ -1826,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H332"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>3.1483</v>
+        <v>3.0999</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1982,12 +2054,12 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1998,13 +2070,13 @@
         <v>3.231</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -2015,7 +2087,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2026,13 +2098,13 @@
         <v>3.1905</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2043,27 +2115,27 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
         <v>3.091</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2071,24 +2143,24 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>2.913</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -2099,24 +2171,24 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>2.795</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -2127,52 +2199,52 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" t="n">
         <v>2.381</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" t="n">
         <v>3.036</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -2183,27 +2255,27 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" t="n">
         <v>2.842</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -2211,24 +2283,24 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
         <v>3.111</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2239,19 +2311,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C37" t="n">
         <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2262,7 +2334,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2273,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2290,24 +2362,24 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C43" t="n">
         <v>3.227</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2318,24 +2390,24 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C46" t="n">
         <v>3.087</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2346,24 +2418,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" t="n">
         <v>3.13</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2374,18 +2446,18 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -2402,18 +2474,18 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -2430,198 +2502,198 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C58" t="n">
         <v>2.674</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C59" t="n">
         <v>2.688</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C62" t="n">
-        <v>2.982</v>
+        <v>2.993</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C63" t="n">
         <v>2.9923</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C64" t="n">
         <v>2.917</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
         <v>2.885</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H65" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C68" t="n">
         <v>2.7605</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C69" t="n">
         <v>2.786</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2629,113 +2701,113 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C70" t="n">
         <v>2.87</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C71" t="n">
         <v>2.713</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C72" t="n">
         <v>2.52</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H72" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C75" t="n">
-        <v>3.422</v>
+        <v>3.4096</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G75" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C76" t="n">
         <v>3.8</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2749,27 +2821,27 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C79" t="n">
         <v>2.673</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E79" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -2777,83 +2849,83 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C82" t="n">
         <v>2.946</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C85" t="n">
         <v>3.018</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G85" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C88" t="n">
         <v>2.911</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -2861,24 +2933,24 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C91" t="n">
         <v>3.5</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G91" t="s">
         <v>14</v>
@@ -2889,55 +2961,55 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C94" t="n">
         <v>2.641</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H94" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="B97" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C97" t="n">
         <v>2.585</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G97" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -2945,24 +3017,24 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="B100" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C100" t="n">
         <v>2.797</v>
       </c>
       <c r="D100" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
@@ -2973,27 +3045,27 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="B103" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C103" t="n">
         <v>3.056</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F103" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -3001,49 +3073,49 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C106" t="n">
         <v>2.518</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E106" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G106" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H106" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C109" t="n">
         <v>3.684</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E109" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3057,102 +3129,102 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C112" t="n">
         <v>2.368</v>
       </c>
       <c r="D112" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E112" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C115" t="n">
         <v>2.5555</v>
       </c>
       <c r="D115" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F115" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G115" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H115" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C118" t="n">
         <v>3.31</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E118" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F118" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -3169,49 +3241,49 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C124" t="n">
         <v>2.8173</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G124" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H124" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C127" t="n">
         <v>3.833</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E127" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -3225,83 +3297,83 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C130" t="n">
         <v>3.333</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E130" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C133" t="n">
         <v>3.006</v>
       </c>
       <c r="D133" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G133" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H133" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C136" t="n">
         <v>3.526</v>
       </c>
       <c r="D136" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E136" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F136" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G136" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -3309,21 +3381,21 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C139" t="n">
         <v>3.857</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E139" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -3337,21 +3409,21 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C142" t="n">
         <v>3.769</v>
       </c>
       <c r="D142" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E142" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -3365,21 +3437,21 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="B145" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C145" t="n">
         <v>3.9</v>
       </c>
       <c r="D145" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -3393,24 +3465,24 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C148" t="n">
         <v>3.667</v>
       </c>
       <c r="D148" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
@@ -3421,18 +3493,18 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -3449,21 +3521,21 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C154" t="n">
         <v>3.8</v>
       </c>
       <c r="D154" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E154" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -3477,24 +3549,24 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C157" t="n">
         <v>3.364</v>
       </c>
       <c r="D157" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -3505,21 +3577,21 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C160" t="n">
         <v>3.333</v>
       </c>
       <c r="D160" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E160" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -3533,13 +3605,13 @@
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -3556,193 +3628,193 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C164" t="n">
-        <v>2.7843</v>
+        <v>2.7397</v>
       </c>
       <c r="D164" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E164" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F164" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="G164" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H164" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C165" t="n">
-        <v>2.792</v>
+        <v>2.8807</v>
       </c>
       <c r="D165" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E165" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F165" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G165" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H165" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C166" t="n">
-        <v>2.812</v>
+        <v>2.6715</v>
       </c>
       <c r="D166" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E166" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F166" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C167" t="n">
-        <v>2.6317</v>
+        <v>3.7</v>
       </c>
       <c r="D167" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E167" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F167" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C168" t="n">
-        <v>3.1994</v>
+        <v>3.2057</v>
       </c>
       <c r="D168" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E168" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F168" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G168" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H168" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C169" t="n">
-        <v>3.7</v>
+        <v>2.8111</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C172" t="n">
-        <v>2.5581</v>
+        <v>2.6629</v>
       </c>
       <c r="D172" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G172" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H172" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C173" t="n">
         <v>2.7998</v>
       </c>
       <c r="D173" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E173" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F173" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G173" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
@@ -3750,111 +3822,111 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C176" t="n">
-        <v>2.6558</v>
+        <v>2.6678</v>
       </c>
       <c r="D176" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E176" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F176" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="G176" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C179" t="n">
         <v>2.3252</v>
       </c>
       <c r="D179" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G179" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H179" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C182" t="n">
-        <v>2.5</v>
+        <v>2.549</v>
       </c>
       <c r="D182" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="G182" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="H182" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C185" t="n">
         <v>2.6072</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G185" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
@@ -3862,83 +3934,83 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C188" t="n">
-        <v>1.8845</v>
+        <v>2.125</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="E188" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="F188" t="s">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="G188" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="H188" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C191" t="n">
         <v>2.6</v>
       </c>
       <c r="D191" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E191" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G191" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H191" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C194" t="n">
         <v>2.546</v>
       </c>
       <c r="D194" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E194" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F194" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G194" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H194" t="s">
         <v>14</v>
@@ -3946,739 +4018,739 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
+        <v>358</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D197" t="s">
+        <v>359</v>
+      </c>
+      <c r="E197" t="s">
+        <v>360</v>
+      </c>
+      <c r="F197" t="s">
+        <v>76</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="D198" t="s">
+        <v>361</v>
+      </c>
+      <c r="E198" t="s">
+        <v>362</v>
+      </c>
+      <c r="F198" t="s">
+        <v>363</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>296</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="D199" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
+        <v>365</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.7385</v>
+      </c>
+      <c r="D202" t="s">
+        <v>73</v>
+      </c>
+      <c r="E202" t="s">
+        <v>236</v>
+      </c>
+      <c r="F202" t="s">
+        <v>75</v>
+      </c>
+      <c r="G202" t="s">
+        <v>366</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>368</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.906</v>
+      </c>
+      <c r="D205" t="s">
+        <v>369</v>
+      </c>
+      <c r="E205" t="s">
+        <v>215</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>231</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D208" t="s">
+        <v>274</v>
+      </c>
+      <c r="E208" t="s">
+        <v>204</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>372</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.0589</v>
+      </c>
+      <c r="D211" t="s">
+        <v>373</v>
+      </c>
+      <c r="E211" t="s">
+        <v>374</v>
+      </c>
+      <c r="F211" t="s">
+        <v>375</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
         <v>303</v>
       </c>
-      <c r="C197" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D197" t="s">
-        <v>38</v>
-      </c>
-      <c r="E197" t="s">
-        <v>38</v>
-      </c>
-      <c r="F197" t="s">
-        <v>200</v>
-      </c>
-      <c r="G197" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>351</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.7385</v>
-      </c>
-      <c r="D200" t="s">
-        <v>70</v>
-      </c>
-      <c r="E200" t="s">
-        <v>231</v>
-      </c>
-      <c r="F200" t="s">
-        <v>72</v>
-      </c>
-      <c r="G200" t="s">
-        <v>352</v>
-      </c>
-      <c r="H200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>354</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.906</v>
-      </c>
-      <c r="D203" t="s">
-        <v>355</v>
-      </c>
-      <c r="E203" t="s">
-        <v>210</v>
-      </c>
-      <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>14</v>
-      </c>
-      <c r="H203" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>226</v>
-      </c>
-      <c r="C206" t="n">
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>377</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.199</v>
+      </c>
+      <c r="D214" t="s">
+        <v>378</v>
+      </c>
+      <c r="E214" t="s">
+        <v>150</v>
+      </c>
+      <c r="F214" t="s">
+        <v>379</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>382</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D217" t="s">
+        <v>75</v>
+      </c>
+      <c r="E217" t="s">
+        <v>383</v>
+      </c>
+      <c r="F217" t="s">
+        <v>366</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>385</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>87</v>
+      </c>
+      <c r="E220" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D223" t="s">
+        <v>387</v>
+      </c>
+      <c r="E223" t="s">
+        <v>239</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>389</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>390</v>
+      </c>
+      <c r="E226" t="s">
+        <v>298</v>
+      </c>
+      <c r="F226" t="s">
+        <v>85</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>382</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>176</v>
+      </c>
+      <c r="E229" t="s">
+        <v>83</v>
+      </c>
+      <c r="F229" t="s">
+        <v>83</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>393</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D232" t="s">
+        <v>394</v>
+      </c>
+      <c r="E232" t="s">
+        <v>269</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>334</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D235" t="s">
+        <v>396</v>
+      </c>
+      <c r="E235" t="s">
+        <v>222</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>398</v>
+      </c>
+      <c r="C238" t="n">
         <v>3.769</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D238" t="s">
+        <v>274</v>
+      </c>
+      <c r="E238" t="s">
+        <v>204</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
+        <v>400</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>87</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>402</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>390</v>
+      </c>
+      <c r="E244" t="s">
+        <v>83</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>404</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.6308</v>
+      </c>
+      <c r="D247" t="s">
+        <v>405</v>
+      </c>
+      <c r="E247" t="s">
+        <v>406</v>
+      </c>
+      <c r="F247" t="s">
+        <v>407</v>
+      </c>
+      <c r="G247" t="s">
+        <v>408</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>318</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D250" t="s">
+        <v>410</v>
+      </c>
+      <c r="E250" t="s">
+        <v>176</v>
+      </c>
+      <c r="F250" t="s">
+        <v>335</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>299</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.3845</v>
+      </c>
+      <c r="D253" t="s">
+        <v>84</v>
+      </c>
+      <c r="E253" t="s">
+        <v>39</v>
+      </c>
+      <c r="F253" t="s">
         <v>269</v>
       </c>
-      <c r="E206" t="s">
-        <v>200</v>
-      </c>
-      <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>14</v>
-      </c>
-      <c r="H206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="B209" t="s">
-        <v>358</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.0589</v>
-      </c>
-      <c r="D209" t="s">
-        <v>359</v>
-      </c>
-      <c r="E209" t="s">
-        <v>360</v>
-      </c>
-      <c r="F209" t="s">
-        <v>361</v>
-      </c>
-      <c r="G209" t="s">
-        <v>14</v>
-      </c>
-      <c r="H209" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="B212" t="s">
-        <v>364</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.199</v>
-      </c>
-      <c r="D212" t="s">
-        <v>365</v>
-      </c>
-      <c r="E212" t="s">
-        <v>146</v>
-      </c>
-      <c r="F212" t="s">
-        <v>366</v>
-      </c>
-      <c r="G212" t="s">
-        <v>14</v>
-      </c>
-      <c r="H212" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="B215" t="s">
-        <v>369</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D215" t="s">
-        <v>72</v>
-      </c>
-      <c r="E215" t="s">
-        <v>370</v>
-      </c>
-      <c r="F215" t="s">
-        <v>352</v>
-      </c>
-      <c r="G215" t="s">
-        <v>14</v>
-      </c>
-      <c r="H215" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
-        <v>364</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D218" t="s">
-        <v>372</v>
-      </c>
-      <c r="E218" t="s">
-        <v>234</v>
-      </c>
-      <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>14</v>
-      </c>
-      <c r="H218" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="B221" t="s">
-        <v>374</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D221" t="s">
-        <v>375</v>
-      </c>
-      <c r="E221" t="s">
-        <v>305</v>
-      </c>
-      <c r="F221" t="s">
-        <v>82</v>
-      </c>
-      <c r="G221" t="s">
-        <v>14</v>
-      </c>
-      <c r="H221" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="B224" t="s">
-        <v>369</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D224" t="s">
-        <v>172</v>
-      </c>
-      <c r="E224" t="s">
-        <v>80</v>
-      </c>
-      <c r="F224" t="s">
-        <v>80</v>
-      </c>
-      <c r="G224" t="s">
-        <v>14</v>
-      </c>
-      <c r="H224" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="B227" t="s">
-        <v>378</v>
-      </c>
-      <c r="C227" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D227" t="s">
-        <v>379</v>
-      </c>
-      <c r="E227" t="s">
-        <v>264</v>
-      </c>
-      <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>14</v>
-      </c>
-      <c r="H227" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="B230" t="s">
-        <v>330</v>
-      </c>
-      <c r="C230" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D230" t="s">
-        <v>381</v>
-      </c>
-      <c r="E230" t="s">
-        <v>217</v>
-      </c>
-      <c r="F230" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" t="s">
-        <v>14</v>
-      </c>
-      <c r="H230" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="B233" t="s">
-        <v>383</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D233" t="s">
-        <v>269</v>
-      </c>
-      <c r="E233" t="s">
-        <v>200</v>
-      </c>
-      <c r="F233" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="B236" t="s">
-        <v>385</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4</v>
-      </c>
-      <c r="D236" t="s">
-        <v>84</v>
-      </c>
-      <c r="E236" t="s">
-        <v>14</v>
-      </c>
-      <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="B239" t="s">
-        <v>387</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D239" t="s">
-        <v>375</v>
-      </c>
-      <c r="E239" t="s">
-        <v>80</v>
-      </c>
-      <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>14</v>
-      </c>
-      <c r="H239" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="B242" t="s">
-        <v>389</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2.6223</v>
-      </c>
-      <c r="D242" t="s">
-        <v>390</v>
-      </c>
-      <c r="E242" t="s">
-        <v>391</v>
-      </c>
-      <c r="F242" t="s">
-        <v>392</v>
-      </c>
-      <c r="G242" t="s">
-        <v>393</v>
-      </c>
-      <c r="H242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="B245" t="s">
-        <v>313</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="D245" t="s">
-        <v>395</v>
-      </c>
-      <c r="E245" t="s">
-        <v>172</v>
-      </c>
-      <c r="F245" t="s">
-        <v>396</v>
-      </c>
-      <c r="G245" t="s">
-        <v>14</v>
-      </c>
-      <c r="H245" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
-        <v>297</v>
-      </c>
-      <c r="C248" t="n">
-        <v>3.3845</v>
-      </c>
-      <c r="D248" t="s">
-        <v>81</v>
-      </c>
-      <c r="E248" t="s">
-        <v>38</v>
-      </c>
-      <c r="F248" t="s">
-        <v>264</v>
-      </c>
-      <c r="G248" t="s">
-        <v>263</v>
-      </c>
-      <c r="H248" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="B251" t="s">
-        <v>399</v>
-      </c>
-      <c r="C251" t="n">
+      <c r="G253" t="s">
+        <v>268</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="B256" t="s">
+        <v>413</v>
+      </c>
+      <c r="C256" t="n">
         <v>3.148</v>
       </c>
-      <c r="D251" t="s">
-        <v>400</v>
-      </c>
-      <c r="E251" t="s">
-        <v>401</v>
-      </c>
-      <c r="F251" t="s">
-        <v>188</v>
-      </c>
-      <c r="G251" t="s">
-        <v>190</v>
-      </c>
-      <c r="H251" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="B254" t="s">
-        <v>313</v>
-      </c>
-      <c r="C254" t="n">
+      <c r="D256" t="s">
+        <v>414</v>
+      </c>
+      <c r="E256" t="s">
+        <v>415</v>
+      </c>
+      <c r="F256" t="s">
+        <v>191</v>
+      </c>
+      <c r="G256" t="s">
+        <v>193</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="B259" t="s">
+        <v>318</v>
+      </c>
+      <c r="C259" t="n">
         <v>3.714</v>
       </c>
-      <c r="D254" t="s">
-        <v>267</v>
-      </c>
-      <c r="E254" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254" t="s">
-        <v>119</v>
-      </c>
-      <c r="G254" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>404</v>
-      </c>
-      <c r="C257" t="n">
+      <c r="D259" t="s">
+        <v>272</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>149</v>
+      </c>
+      <c r="G259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="B262" t="s">
+        <v>418</v>
+      </c>
+      <c r="C262" t="n">
         <v>3.714</v>
       </c>
-      <c r="D257" t="s">
-        <v>405</v>
-      </c>
-      <c r="E257" t="s">
-        <v>65</v>
-      </c>
-      <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>14</v>
-      </c>
-      <c r="H257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="B260" t="s">
-        <v>340</v>
-      </c>
-      <c r="C260" t="n">
+      <c r="D262" t="s">
+        <v>419</v>
+      </c>
+      <c r="E262" t="s">
+        <v>68</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" t="s">
+        <v>349</v>
+      </c>
+      <c r="C265" t="n">
         <v>3.643</v>
       </c>
-      <c r="D260" t="s">
-        <v>407</v>
-      </c>
-      <c r="E260" t="s">
-        <v>408</v>
-      </c>
-      <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>14</v>
-      </c>
-      <c r="H260" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>410</v>
-      </c>
-      <c r="C263" t="n">
+      <c r="D265" t="s">
+        <v>421</v>
+      </c>
+      <c r="E265" t="s">
+        <v>422</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="B268" t="s">
+        <v>424</v>
+      </c>
+      <c r="C268" t="n">
         <v>3.902</v>
       </c>
-      <c r="D263" t="s">
-        <v>271</v>
-      </c>
-      <c r="E263" t="s">
-        <v>82</v>
-      </c>
-      <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>14</v>
-      </c>
-      <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="B266" t="s">
-        <v>278</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D266" t="s">
-        <v>412</v>
-      </c>
-      <c r="E266" t="s">
-        <v>45</v>
-      </c>
-      <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="B269" t="s">
-        <v>414</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D269" t="s">
-        <v>415</v>
-      </c>
-      <c r="E269" t="s">
-        <v>236</v>
-      </c>
-      <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>14</v>
-      </c>
-      <c r="H269" t="s">
+      <c r="D268" t="s">
+        <v>276</v>
+      </c>
+      <c r="E268" t="s">
+        <v>85</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>416</v>
-      </c>
-      <c r="C270" t="n">
-        <v>4</v>
-      </c>
-      <c r="D270" t="s">
-        <v>84</v>
-      </c>
-      <c r="E270" t="s">
-        <v>14</v>
-      </c>
-      <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>14</v>
-      </c>
-      <c r="H270" t="s">
-        <v>14</v>
+      <c r="A270" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="B271" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C271" t="n">
-        <v>3.7</v>
+        <v>3.727</v>
       </c>
       <c r="D271" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="E271" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="F271" t="s">
         <v>14</v>
@@ -4690,151 +4762,233 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
-      <c r="B272" t="s">
-        <v>239</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D272" t="s">
-        <v>417</v>
-      </c>
-      <c r="E272" t="s">
-        <v>418</v>
-      </c>
-      <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>264</v>
-      </c>
-      <c r="H272" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>419</v>
-      </c>
-      <c r="C273" t="n">
-        <v>4</v>
-      </c>
-      <c r="D273" t="s">
-        <v>84</v>
-      </c>
-      <c r="E273" t="s">
-        <v>14</v>
-      </c>
-      <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>14</v>
-      </c>
-      <c r="H273" t="s">
-        <v>14</v>
+      <c r="A273" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="B274" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C274" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D274" t="s">
+        <v>394</v>
+      </c>
+      <c r="E274" t="s">
+        <v>269</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>14</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>429</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D275" t="s">
+        <v>430</v>
+      </c>
+      <c r="E275" t="s">
+        <v>241</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>431</v>
+      </c>
+      <c r="C276" t="n">
         <v>4</v>
       </c>
-      <c r="D274" t="s">
-        <v>84</v>
-      </c>
-      <c r="E274" t="s">
-        <v>14</v>
-      </c>
-      <c r="F274" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" t="s">
-        <v>14</v>
-      </c>
-      <c r="H274" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>421</v>
+      <c r="D276" t="s">
+        <v>87</v>
+      </c>
+      <c r="E276" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="B277" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C277" t="n">
-        <v>2.605</v>
+        <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="E277" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="H277" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>432</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D278" t="s">
+        <v>47</v>
+      </c>
+      <c r="E278" t="s">
+        <v>433</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>426</v>
+      <c r="B279" t="s">
+        <v>400</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.732</v>
+      </c>
+      <c r="D279" t="s">
+        <v>434</v>
+      </c>
+      <c r="E279" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" t="s">
+        <v>111</v>
+      </c>
+      <c r="G279" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
-        <v>49</v>
+        <v>436</v>
       </c>
       <c r="C280" t="n">
-        <v>2.755</v>
+        <v>4</v>
       </c>
       <c r="D280" t="s">
-        <v>427</v>
+        <v>87</v>
       </c>
       <c r="E280" t="s">
-        <v>428</v>
+        <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="G280" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="H280" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>264</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D281" t="s">
+        <v>297</v>
+      </c>
+      <c r="E281" t="s">
+        <v>298</v>
+      </c>
+      <c r="F281" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>430</v>
+      <c r="B282" t="s">
+        <v>244</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D282" t="s">
+        <v>437</v>
+      </c>
+      <c r="E282" t="s">
+        <v>438</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>269</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="C283" t="n">
-        <v>3.444</v>
+        <v>4</v>
       </c>
       <c r="D283" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E283" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="G283" t="s">
         <v>14</v>
@@ -4845,50 +4999,91 @@
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="C284" t="n">
-        <v>3.267</v>
+        <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>432</v>
+        <v>87</v>
       </c>
       <c r="E284" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="G284" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="H284" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>57</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D285" t="s">
+        <v>441</v>
+      </c>
+      <c r="E285" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>433</v>
+      <c r="B286" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" t="n">
+        <v>4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>87</v>
+      </c>
+      <c r="E286" t="s">
+        <v>14</v>
+      </c>
+      <c r="F286" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
-        <v>196</v>
+        <v>442</v>
       </c>
       <c r="C287" t="n">
-        <v>3.182</v>
+        <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E287" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G287" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H287" t="s">
         <v>14</v>
@@ -4896,80 +5091,80 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>435</v>
+        <v>209</v>
       </c>
       <c r="C290" t="n">
-        <v>2.5</v>
+        <v>2.605</v>
       </c>
       <c r="D290" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
       <c r="E290" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F290" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G290" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H290" t="s">
-        <v>438</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="B293" t="s">
-        <v>440</v>
+        <v>52</v>
       </c>
       <c r="C293" t="n">
-        <v>3.08</v>
+        <v>2.755</v>
       </c>
       <c r="D293" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E293" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F293" t="s">
-        <v>396</v>
+        <v>212</v>
       </c>
       <c r="G293" t="s">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="H293" t="s">
-        <v>443</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="B296" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>3.444</v>
       </c>
       <c r="D296" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E296" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F296" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
       <c r="G296" t="s">
         <v>14</v>
@@ -4978,421 +5173,584 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>445</v>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
+        <v>398</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="D297" t="s">
+        <v>454</v>
+      </c>
+      <c r="E297" t="s">
+        <v>83</v>
+      </c>
+      <c r="F297" t="s">
+        <v>262</v>
+      </c>
+      <c r="G297" t="s">
+        <v>262</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>419</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.239</v>
-      </c>
-      <c r="D299" t="s">
-        <v>129</v>
-      </c>
-      <c r="E299" t="s">
-        <v>446</v>
-      </c>
-      <c r="F299" t="s">
-        <v>447</v>
-      </c>
-      <c r="G299" t="s">
-        <v>448</v>
-      </c>
-      <c r="H299" t="s">
-        <v>14</v>
+      <c r="A299" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>449</v>
+        <v>200</v>
       </c>
       <c r="C300" t="n">
-        <v>2.326</v>
+        <v>3.182</v>
       </c>
       <c r="D300" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E300" t="s">
-        <v>392</v>
+        <v>90</v>
       </c>
       <c r="F300" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="G300" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
       <c r="H300" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="B301" t="s">
-        <v>453</v>
-      </c>
-      <c r="C301" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="D301" t="s">
-        <v>454</v>
-      </c>
-      <c r="E301" t="s">
-        <v>305</v>
-      </c>
-      <c r="F301" t="s">
-        <v>455</v>
-      </c>
-      <c r="G301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
         <v>456</v>
-      </c>
-      <c r="H301" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="B302" t="s">
-        <v>457</v>
-      </c>
-      <c r="C302" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D302" t="s">
-        <v>216</v>
-      </c>
-      <c r="E302" t="s">
-        <v>458</v>
-      </c>
-      <c r="F302" t="s">
-        <v>425</v>
-      </c>
-      <c r="G302" t="s">
-        <v>14</v>
-      </c>
-      <c r="H302" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
+        <v>457</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D303" t="s">
+        <v>298</v>
+      </c>
+      <c r="E303" t="s">
+        <v>458</v>
+      </c>
+      <c r="F303" t="s">
         <v>459</v>
       </c>
-      <c r="C303" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="G303" t="s">
+        <v>458</v>
+      </c>
+      <c r="H303" t="s">
         <v>460</v>
       </c>
-      <c r="E303" t="s">
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
         <v>461</v>
       </c>
-      <c r="F303" t="s">
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
         <v>462</v>
       </c>
-      <c r="G303" t="s">
-        <v>113</v>
-      </c>
-      <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="B304" t="s">
+      <c r="C306" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D306" t="s">
         <v>463</v>
       </c>
-      <c r="C304" t="n">
-        <v>2.8665</v>
-      </c>
-      <c r="D304" t="s">
+      <c r="E306" t="s">
         <v>464</v>
       </c>
-      <c r="E304" t="s">
+      <c r="F306" t="s">
+        <v>335</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
         <v>465</v>
       </c>
-      <c r="F304" t="s">
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
         <v>200</v>
       </c>
-      <c r="G304" t="s">
-        <v>264</v>
-      </c>
-      <c r="H304" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="B305" t="s">
+      <c r="C309" t="n">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>87</v>
+      </c>
+      <c r="E309" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
         <v>440</v>
       </c>
-      <c r="C305" t="n">
-        <v>2.1825</v>
-      </c>
-      <c r="D305" t="s">
-        <v>466</v>
-      </c>
-      <c r="E305" t="s">
-        <v>400</v>
-      </c>
-      <c r="F305" t="s">
-        <v>187</v>
-      </c>
-      <c r="G305" t="s">
-        <v>467</v>
-      </c>
-      <c r="H305" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
+      <c r="C312" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="D312" t="s">
+        <v>132</v>
+      </c>
+      <c r="E312" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>459</v>
-      </c>
-      <c r="C308" t="n">
-        <v>3.5568</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="F312" t="s">
         <v>469</v>
       </c>
-      <c r="E308" t="s">
+      <c r="G312" t="s">
         <v>470</v>
       </c>
-      <c r="F308" t="s">
+      <c r="H312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
         <v>471</v>
       </c>
-      <c r="G308" t="s">
+      <c r="C313" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="D313" t="s">
+        <v>100</v>
+      </c>
+      <c r="E313" t="s">
         <v>472</v>
       </c>
-      <c r="H308" t="s">
+      <c r="F313" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
+      <c r="G313" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
+      <c r="H313" t="s">
         <v>475</v>
-      </c>
-      <c r="C311" t="n">
-        <v>3.7905</v>
-      </c>
-      <c r="D311" t="s">
-        <v>476</v>
-      </c>
-      <c r="E311" t="s">
-        <v>314</v>
-      </c>
-      <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>14</v>
-      </c>
-      <c r="H311" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="B314" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C314" t="n">
-        <v>2.95</v>
+        <v>2.467</v>
       </c>
       <c r="D314" t="s">
-        <v>167</v>
+        <v>476</v>
       </c>
       <c r="E314" t="s">
+        <v>298</v>
+      </c>
+      <c r="F314" t="s">
+        <v>477</v>
+      </c>
+      <c r="G314" t="s">
         <v>478</v>
       </c>
-      <c r="F314" t="s">
-        <v>130</v>
-      </c>
-      <c r="G314" t="s">
-        <v>14</v>
-      </c>
       <c r="H314" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>479</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D315" t="s">
+        <v>221</v>
+      </c>
+      <c r="E315" t="s">
+        <v>480</v>
+      </c>
+      <c r="F315" t="s">
+        <v>447</v>
+      </c>
+      <c r="G315" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>479</v>
+      <c r="B316" t="s">
+        <v>481</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D316" t="s">
+        <v>482</v>
+      </c>
+      <c r="E316" t="s">
+        <v>483</v>
+      </c>
+      <c r="F316" t="s">
+        <v>484</v>
+      </c>
+      <c r="G316" t="s">
+        <v>116</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="B317" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C317" t="n">
+        <v>2.8665</v>
+      </c>
+      <c r="D317" t="s">
+        <v>486</v>
+      </c>
+      <c r="E317" t="s">
+        <v>487</v>
+      </c>
+      <c r="F317" t="s">
+        <v>204</v>
+      </c>
+      <c r="G317" t="s">
+        <v>269</v>
+      </c>
+      <c r="H317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>462</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="D318" t="s">
+        <v>488</v>
+      </c>
+      <c r="E318" t="s">
+        <v>414</v>
+      </c>
+      <c r="F318" t="s">
+        <v>190</v>
+      </c>
+      <c r="G318" t="s">
+        <v>489</v>
+      </c>
+      <c r="H318" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>481</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3.5608</v>
+      </c>
+      <c r="D321" t="s">
+        <v>491</v>
+      </c>
+      <c r="E321" t="s">
+        <v>492</v>
+      </c>
+      <c r="F321" t="s">
+        <v>493</v>
+      </c>
+      <c r="G321" t="s">
+        <v>494</v>
+      </c>
+      <c r="H321" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>497</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3.7905</v>
+      </c>
+      <c r="D324" t="s">
+        <v>498</v>
+      </c>
+      <c r="E324" t="s">
+        <v>319</v>
+      </c>
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>500</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D327" t="s">
+        <v>47</v>
+      </c>
+      <c r="E327" t="s">
+        <v>90</v>
+      </c>
+      <c r="F327" t="s">
+        <v>91</v>
+      </c>
+      <c r="G327" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="B330" t="s">
+        <v>429</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D330" t="s">
+        <v>198</v>
+      </c>
+      <c r="E330" t="s">
+        <v>503</v>
+      </c>
+      <c r="F330" t="s">
+        <v>133</v>
+      </c>
+      <c r="G330" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>500</v>
+      </c>
+      <c r="C333" t="n">
         <v>3.45</v>
       </c>
-      <c r="D317" t="s">
-        <v>481</v>
-      </c>
-      <c r="E317" t="s">
-        <v>437</v>
-      </c>
-      <c r="F317" t="s">
-        <v>82</v>
-      </c>
-      <c r="G317" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>480</v>
-      </c>
-      <c r="C320" t="n">
+      <c r="D333" t="s">
+        <v>505</v>
+      </c>
+      <c r="E333" t="s">
+        <v>459</v>
+      </c>
+      <c r="F333" t="s">
+        <v>85</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="B336" t="s">
+        <v>500</v>
+      </c>
+      <c r="C336" t="n">
         <v>3.929</v>
       </c>
-      <c r="D320" t="s">
-        <v>483</v>
-      </c>
-      <c r="E320" t="s">
-        <v>147</v>
-      </c>
-      <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="B323" t="s">
-        <v>485</v>
-      </c>
-      <c r="C323" t="n">
+      <c r="D336" t="s">
+        <v>507</v>
+      </c>
+      <c r="E336" t="s">
+        <v>151</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="B339" t="s">
+        <v>509</v>
+      </c>
+      <c r="C339" t="n">
         <v>4</v>
       </c>
-      <c r="D323" t="s">
-        <v>84</v>
-      </c>
-      <c r="E323" t="s">
-        <v>14</v>
-      </c>
-      <c r="F323" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323" t="s">
-        <v>14</v>
-      </c>
-      <c r="H323" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="A325" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="B326" t="s">
-        <v>487</v>
-      </c>
-      <c r="C326" t="n">
+      <c r="D339" t="s">
+        <v>87</v>
+      </c>
+      <c r="E339" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="B342" t="s">
+        <v>511</v>
+      </c>
+      <c r="C342" t="n">
         <v>4</v>
       </c>
-      <c r="D326" t="s">
-        <v>84</v>
-      </c>
-      <c r="E326" t="s">
-        <v>14</v>
-      </c>
-      <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>14</v>
-      </c>
-      <c r="H326" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="B329" t="s">
-        <v>489</v>
-      </c>
-      <c r="C329" t="n">
+      <c r="D342" t="s">
+        <v>87</v>
+      </c>
+      <c r="E342" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="B345" t="s">
+        <v>513</v>
+      </c>
+      <c r="C345" t="n">
         <v>4</v>
       </c>
-      <c r="D329" t="s">
-        <v>84</v>
-      </c>
-      <c r="E329" t="s">
-        <v>14</v>
-      </c>
-      <c r="F329" t="s">
-        <v>14</v>
-      </c>
-      <c r="G329" t="s">
-        <v>14</v>
-      </c>
-      <c r="H329" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>491</v>
-      </c>
-      <c r="C332" t="n">
+      <c r="D345" t="s">
+        <v>87</v>
+      </c>
+      <c r="E345" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>515</v>
+      </c>
+      <c r="C348" t="n">
         <v>4</v>
       </c>
-      <c r="D332" t="s">
-        <v>84</v>
-      </c>
-      <c r="E332" t="s">
-        <v>14</v>
-      </c>
-      <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>14</v>
-      </c>
-      <c r="H332" t="s">
+      <c r="D348" t="s">
+        <v>87</v>
+      </c>
+      <c r="E348" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>1.33%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>LOGAN T</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>0.78%</t>
   </si>
   <si>
+    <t>1.53%</t>
+  </si>
+  <si>
     <t>CONLEE D</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>0.85%</t>
   </si>
   <si>
+    <t>4.10%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>0.63%</t>
   </si>
   <si>
+    <t>9.60%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t>9.09%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>ATMO-335</t>
   </si>
   <si>
@@ -184,6 +202,9 @@
     <t>34.78%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>ATMO-336</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t>2.38%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>ATMO-443</t>
   </si>
   <si>
@@ -352,6 +376,9 @@
     <t>1.37%</t>
   </si>
   <si>
+    <t>2.88%</t>
+  </si>
+  <si>
     <t>EWERS M</t>
   </si>
   <si>
@@ -370,6 +397,9 @@
     <t>0.71%</t>
   </si>
   <si>
+    <t>3.42%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -391,6 +421,9 @@
     <t>3.01%</t>
   </si>
   <si>
+    <t>2.52%</t>
+  </si>
+  <si>
     <t>PATZEWITSCH W</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t>0.77%</t>
   </si>
   <si>
+    <t>1.21%</t>
+  </si>
+  <si>
     <t>NAM S</t>
   </si>
   <si>
@@ -418,9 +454,6 @@
     <t>29.17%</t>
   </si>
   <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>HUGILL P</t>
   </si>
   <si>
@@ -439,6 +472,9 @@
     <t>0.28%</t>
   </si>
   <si>
+    <t>2.18%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -460,6 +496,9 @@
     <t>3.95%</t>
   </si>
   <si>
+    <t>4.70%</t>
+  </si>
+  <si>
     <t>CHEN L</t>
   </si>
   <si>
@@ -487,7 +526,7 @@
     <t>6.16%</t>
   </si>
   <si>
-    <t>3.42%</t>
+    <t>3.31%</t>
   </si>
   <si>
     <t>FRAUENFELD O</t>
@@ -508,6 +547,9 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>10.53%</t>
+  </si>
+  <si>
     <t>GUNERALP I</t>
   </si>
   <si>
@@ -523,6 +565,9 @@
     <t>0.80%</t>
   </si>
   <si>
+    <t>6.72%</t>
+  </si>
+  <si>
     <t>GEOG-213</t>
   </si>
   <si>
@@ -538,7 +583,7 @@
     <t>2.22%</t>
   </si>
   <si>
-    <t>3.23%</t>
+    <t>2.75%</t>
   </si>
   <si>
     <t>80.00%</t>
@@ -562,6 +607,9 @@
     <t>8.41%</t>
   </si>
   <si>
+    <t>8.15%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -580,6 +628,9 @@
     <t>5.38%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>GEOG-305</t>
   </si>
   <si>
@@ -613,6 +664,9 @@
     <t>25.00%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>GEOG-309</t>
   </si>
   <si>
@@ -640,6 +694,9 @@
     <t>2.56%</t>
   </si>
   <si>
+    <t>1.27%</t>
+  </si>
+  <si>
     <t>GEOG-320</t>
   </si>
   <si>
@@ -658,6 +715,9 @@
     <t>11.32%</t>
   </si>
   <si>
+    <t>8.62%</t>
+  </si>
+  <si>
     <t>GEOG-330</t>
   </si>
   <si>
@@ -670,6 +730,9 @@
     <t>29.69%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>GEOG-332</t>
   </si>
   <si>
@@ -688,6 +751,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -706,6 +772,9 @@
     <t>4.94%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -784,6 +853,9 @@
     <t>7.04%</t>
   </si>
   <si>
+    <t>21.98%</t>
+  </si>
+  <si>
     <t>GEOG-392</t>
   </si>
   <si>
@@ -805,6 +877,9 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>GEOG-434</t>
   </si>
   <si>
@@ -829,6 +904,9 @@
     <t>GEOG-450</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>GEOG-603</t>
   </si>
   <si>
@@ -925,12 +1003,12 @@
     <t>14.01%</t>
   </si>
   <si>
-    <t>1.27%</t>
-  </si>
-  <si>
     <t>0.64%</t>
   </si>
   <si>
+    <t>1.26%</t>
+  </si>
+  <si>
     <t>SCHROEDER C</t>
   </si>
   <si>
@@ -970,6 +1048,9 @@
     <t>2.55%</t>
   </si>
   <si>
+    <t>4.85%</t>
+  </si>
+  <si>
     <t>EVERETT M</t>
   </si>
   <si>
@@ -982,6 +1063,9 @@
     <t>9.76%</t>
   </si>
   <si>
+    <t>0.61%</t>
+  </si>
+  <si>
     <t>GEOL-106</t>
   </si>
   <si>
@@ -1015,6 +1099,9 @@
     <t>4.46%</t>
   </si>
   <si>
+    <t>1.75%</t>
+  </si>
+  <si>
     <t>GEOL-302</t>
   </si>
   <si>
@@ -1108,15 +1195,15 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>35.00%</t>
+  </si>
+  <si>
     <t>GEOL-312</t>
   </si>
   <si>
     <t>CHESTER J</t>
   </si>
   <si>
-    <t>10.53%</t>
-  </si>
-  <si>
     <t>GEOL-330</t>
   </si>
   <si>
@@ -1144,6 +1231,9 @@
     <t>20.38%</t>
   </si>
   <si>
+    <t>3.68%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
@@ -1243,6 +1333,9 @@
     <t>9.68%</t>
   </si>
   <si>
+    <t>2.36%</t>
+  </si>
+  <si>
     <t>GEOP-413</t>
   </si>
   <si>
@@ -1393,12 +1486,6 @@
     <t>15.00%</t>
   </si>
   <si>
-    <t>35.00%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
     <t>GEOS-481</t>
   </si>
   <si>
@@ -1429,6 +1516,9 @@
     <t>6.31%</t>
   </si>
   <si>
+    <t>0.89%</t>
+  </si>
+  <si>
     <t>EVANS M</t>
   </si>
   <si>
@@ -1453,12 +1543,18 @@
     <t>14.44%</t>
   </si>
   <si>
+    <t>8.16%</t>
+  </si>
+  <si>
     <t>GIESE B</t>
   </si>
   <si>
     <t>30.92%</t>
   </si>
   <si>
+    <t>3.80%</t>
+  </si>
+  <si>
     <t>WIEDERWOHL C</t>
   </si>
   <si>
@@ -1471,6 +1567,9 @@
     <t>13.83%</t>
   </si>
   <si>
+    <t>1.05%</t>
+  </si>
+  <si>
     <t>GARDNER W</t>
   </si>
   <si>
@@ -1486,6 +1585,9 @@
     <t>17.28%</t>
   </si>
   <si>
+    <t>8.99%</t>
+  </si>
+  <si>
     <t>OCNG-252</t>
   </si>
   <si>
@@ -1504,6 +1606,9 @@
     <t>0.87%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1517,9 +1622,6 @@
   </si>
   <si>
     <t>STOESSEL A</t>
-  </si>
-  <si>
-    <t>4.55%</t>
   </si>
   <si>
     <t>OCNG-420</t>
@@ -1599,12 +1701,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1898,15 +1999,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H348"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1931,3827 +2032,4262 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.143</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>2.953</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>3.5965</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>3.231</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>3.0999</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>3.231</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>3.1905</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>3.091</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>2.913</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>2.795</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27" t="n">
         <v>2.381</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
         <v>3.036</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C33" t="n">
         <v>2.842</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C36" t="n">
         <v>3.111</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C37" t="n">
         <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C43" t="n">
         <v>3.227</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
         <v>3.087</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C49" t="n">
         <v>3.13</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C58" t="n">
         <v>2.674</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G58" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C59" t="n">
         <v>2.688</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C62" t="n">
         <v>2.993</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C63" t="n">
         <v>2.9923</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C64" t="n">
         <v>2.917</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C65" t="n">
         <v>2.885</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C68" t="n">
         <v>2.7605</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C69" t="n">
         <v>2.786</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C70" t="n">
         <v>2.87</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C71" t="n">
         <v>2.713</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C72" t="n">
         <v>2.52</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C75" t="n">
         <v>3.4096</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C76" t="n">
         <v>3.8</v>
       </c>
       <c r="D76" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C79" t="n">
         <v>2.673</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C82" t="n">
         <v>2.946</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C85" t="n">
         <v>3.018</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C88" t="n">
         <v>2.911</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C91" t="n">
         <v>3.5</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C94" t="n">
         <v>2.641</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C97" t="n">
         <v>2.585</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F97" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G97" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C100" t="n">
         <v>2.797</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C103" t="n">
         <v>3.056</v>
       </c>
       <c r="D103" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E103" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F103" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C106" t="n">
         <v>2.518</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="H106" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C109" t="n">
         <v>3.684</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C112" t="n">
         <v>2.368</v>
       </c>
       <c r="D112" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E112" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F112" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H112" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C115" t="n">
         <v>2.5555</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="G115" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C118" t="n">
         <v>3.31</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C124" t="n">
         <v>2.8173</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F124" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G124" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I124" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C127" t="n">
         <v>3.833</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C130" t="n">
         <v>3.333</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="F130" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I130" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C133" t="n">
         <v>3.006</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G133" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H133" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>294</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C136" t="n">
         <v>3.526</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E136" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F136" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G136" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C139" t="n">
         <v>3.857</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C142" t="n">
         <v>3.769</v>
       </c>
       <c r="D142" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C145" t="n">
         <v>3.9</v>
       </c>
       <c r="D145" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C148" t="n">
         <v>3.667</v>
       </c>
       <c r="D148" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C154" t="n">
         <v>3.8</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C157" t="n">
         <v>3.364</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C160" t="n">
         <v>3.333</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C164" t="n">
         <v>2.7397</v>
       </c>
       <c r="D164" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E164" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G164" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H164" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C165" t="n">
         <v>2.8807</v>
       </c>
       <c r="D165" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E165" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="G165" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="H165" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="I165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C166" t="n">
         <v>2.6715</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="G166" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="I166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C167" t="n">
         <v>3.7</v>
       </c>
       <c r="D167" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E167" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C168" t="n">
         <v>3.2057</v>
       </c>
       <c r="D168" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E168" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="G168" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="H168" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I168" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C169" t="n">
         <v>2.8111</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="G169" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="H169" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I169" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C172" t="n">
         <v>2.6629</v>
       </c>
       <c r="D172" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="E172" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="F172" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="G172" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="H172" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I172" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C173" t="n">
         <v>2.7998</v>
       </c>
       <c r="D173" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="G173" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C176" t="n">
         <v>2.6678</v>
       </c>
       <c r="D176" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E176" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="F176" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>353</v>
+      </c>
+      <c r="I176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C179" t="n">
         <v>2.3252</v>
       </c>
       <c r="D179" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="G179" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="H179" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>360</v>
+      </c>
+      <c r="I179" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C182" t="n">
         <v>2.549</v>
       </c>
       <c r="D182" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="E182" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H182" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>366</v>
+      </c>
+      <c r="I182" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="C185" t="n">
         <v>2.6072</v>
       </c>
       <c r="D185" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="G185" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C188" t="n">
         <v>2.125</v>
       </c>
       <c r="D188" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="E188" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="G188" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H188" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>376</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C191" t="n">
         <v>2.6</v>
       </c>
       <c r="D191" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="G191" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H191" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>294</v>
+      </c>
+      <c r="I191" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="C194" t="n">
         <v>2.546</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E194" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F194" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="G194" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C197" t="n">
         <v>3.158</v>
       </c>
       <c r="D197" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="E197" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H197" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I197" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C198" t="n">
         <v>3.118</v>
       </c>
       <c r="D198" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="E198" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I198" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C199" t="n">
         <v>3.154</v>
       </c>
       <c r="D199" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C202" t="n">
         <v>2.7385</v>
       </c>
       <c r="D202" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E202" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F202" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G202" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I202" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="C205" t="n">
         <v>3.906</v>
       </c>
       <c r="D205" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="E205" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C208" t="n">
         <v>3.769</v>
       </c>
       <c r="D208" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E208" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C211" t="n">
         <v>3.0589</v>
       </c>
       <c r="D211" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="E211" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H211" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I211" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C214" t="n">
         <v>3.199</v>
       </c>
       <c r="D214" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="E214" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F214" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H214" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>410</v>
+      </c>
+      <c r="I214" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="C217" t="n">
         <v>3.158</v>
       </c>
       <c r="D217" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E217" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C223" t="n">
         <v>3.778</v>
       </c>
       <c r="D223" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="E223" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="C226" t="n">
         <v>3.5</v>
       </c>
       <c r="D226" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="E226" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F226" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H226" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="C229" t="n">
         <v>2.8</v>
       </c>
       <c r="D229" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E229" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F229" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H229" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="C232" t="n">
         <v>3.923</v>
       </c>
       <c r="D232" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E232" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H232" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C235" t="n">
         <v>3.875</v>
       </c>
       <c r="D235" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E235" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C238" t="n">
         <v>3.769</v>
       </c>
       <c r="D238" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E238" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H238" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C244" t="n">
         <v>3.6</v>
       </c>
       <c r="D244" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="E244" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H244" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C247" t="n">
         <v>2.6308</v>
       </c>
       <c r="D247" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="E247" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="F247" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="G247" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="H247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I247" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C250" t="n">
         <v>3.64</v>
       </c>
       <c r="D250" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="E250" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F250" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C253" t="n">
         <v>3.3845</v>
       </c>
       <c r="D253" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F253" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G253" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C256" t="n">
         <v>3.148</v>
       </c>
       <c r="D256" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="E256" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="F256" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G256" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H256" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C259" t="n">
         <v>3.714</v>
       </c>
       <c r="D259" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F259" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="C262" t="n">
         <v>3.714</v>
       </c>
       <c r="D262" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="E262" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H262" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C265" t="n">
         <v>3.643</v>
       </c>
       <c r="D265" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="E265" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H265" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="C268" t="n">
         <v>3.902</v>
       </c>
       <c r="D268" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="E268" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C271" t="n">
         <v>3.727</v>
       </c>
       <c r="D271" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="E271" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H271" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="C274" t="n">
         <v>3.923</v>
       </c>
       <c r="D274" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E274" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F274" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H274" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C275" t="n">
         <v>3.917</v>
       </c>
       <c r="D275" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="E275" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="C276" t="n">
         <v>4</v>
       </c>
       <c r="D276" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H276" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C277" t="n">
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H277" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="C278" t="n">
         <v>3.454</v>
       </c>
       <c r="D278" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E278" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C279" t="n">
         <v>3.732</v>
       </c>
       <c r="D279" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="E279" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F279" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G279" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H279" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>466</v>
+      </c>
+      <c r="I279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="C280" t="n">
         <v>4</v>
       </c>
       <c r="D280" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E280" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F280" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G280" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H280" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C281" t="n">
         <v>3.7</v>
       </c>
       <c r="D281" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E281" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C282" t="n">
         <v>3.462</v>
       </c>
       <c r="D282" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="E282" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G282" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C283" t="n">
         <v>4</v>
       </c>
       <c r="D283" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E283" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F283" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G283" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H283" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="C284" t="n">
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E284" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F284" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G284" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C285" t="n">
         <v>3.778</v>
       </c>
       <c r="D285" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="E285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H285" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C286" t="n">
         <v>4</v>
       </c>
       <c r="D286" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H286" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C287" t="n">
         <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H287" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C290" t="n">
         <v>2.605</v>
       </c>
       <c r="D290" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="E290" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="F290" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="G290" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="H290" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C293" t="n">
         <v>2.755</v>
       </c>
       <c r="D293" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="E293" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="F293" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G293" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="H293" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I293" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C296" t="n">
         <v>3.444</v>
       </c>
       <c r="D296" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E296" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F296" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="G296" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C297" t="n">
         <v>3.267</v>
       </c>
       <c r="D297" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="E297" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F297" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G297" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H297" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C300" t="n">
         <v>3.182</v>
       </c>
       <c r="D300" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E300" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G300" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="C303" t="n">
         <v>2.5</v>
       </c>
       <c r="D303" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="E303" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="F303" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="G303" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="H303" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="I303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C306" t="n">
         <v>3.08</v>
       </c>
       <c r="D306" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="E306" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="F306" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G306" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H306" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>494</v>
+      </c>
+      <c r="I306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C309" t="n">
         <v>4</v>
       </c>
       <c r="D309" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E309" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H309" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="C312" t="n">
         <v>3.239</v>
       </c>
       <c r="D312" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E312" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="F312" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="G312" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="H312" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I312" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C313" t="n">
         <v>2.326</v>
       </c>
       <c r="D313" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E313" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="F313" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="G313" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="H313" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>505</v>
+      </c>
+      <c r="I313" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="C314" t="n">
         <v>2.467</v>
       </c>
       <c r="D314" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="E314" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F314" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="G314" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="H314" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I314" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="C315" t="n">
         <v>3.556</v>
       </c>
       <c r="D315" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E315" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="F315" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G315" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H315" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I315" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="C316" t="n">
         <v>3.138</v>
       </c>
       <c r="D316" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="E316" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="F316" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="G316" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H316" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I316" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C317" t="n">
         <v>2.8665</v>
       </c>
       <c r="D317" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="E317" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="F317" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G317" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H317" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I317" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C318" t="n">
         <v>2.1825</v>
       </c>
       <c r="D318" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="E318" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="F318" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G318" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="H318" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I318" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="C321" t="n">
         <v>3.5608</v>
       </c>
       <c r="D321" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="E321" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="F321" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="G321" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="H321" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>529</v>
+      </c>
+      <c r="I321" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="C324" t="n">
         <v>3.7905</v>
       </c>
       <c r="D324" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E324" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="F324" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G324" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H324" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="B327" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="C327" t="n">
         <v>3.182</v>
       </c>
       <c r="D327" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E327" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F327" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G327" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H327" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C330" t="n">
         <v>2.95</v>
       </c>
       <c r="D330" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E330" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="F330" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G330" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H330" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I330" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="C333" t="n">
         <v>3.45</v>
       </c>
       <c r="D333" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="E333" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="F333" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G333" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H333" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="B336" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="C336" t="n">
         <v>3.929</v>
       </c>
       <c r="D336" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="E336" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F336" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G336" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H336" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I336" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="B339" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="C339" t="n">
         <v>4</v>
       </c>
       <c r="D339" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H339" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="B342" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="C342" t="n">
         <v>4</v>
       </c>
       <c r="D342" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H342" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="B345" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="C345" t="n">
         <v>4</v>
       </c>
       <c r="D345" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H345" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I345" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="B348" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="C348" t="n">
         <v>4</v>
       </c>
       <c r="D348" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E348" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F348" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G348" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H348" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I348" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>Course</t>
   </si>
@@ -280,6 +280,12 @@
     <t>100.00%</t>
   </si>
   <si>
+    <t>ATMO-491</t>
+  </si>
+  <si>
+    <t>NIELSEN-GAMMON J</t>
+  </si>
+  <si>
     <t>ATMO-601</t>
   </si>
   <si>
@@ -658,6 +664,15 @@
     <t>11.32%</t>
   </si>
   <si>
+    <t>GEOG-327</t>
+  </si>
+  <si>
+    <t>REILLY K</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>GEOG-330</t>
   </si>
   <si>
@@ -739,9 +754,6 @@
     <t>41.67%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>2.78%</t>
   </si>
   <si>
@@ -793,6 +805,12 @@
     <t>83.33%</t>
   </si>
   <si>
+    <t>GEOG-401</t>
+  </si>
+  <si>
+    <t>19.44%</t>
+  </si>
+  <si>
     <t>GEOG-404</t>
   </si>
   <si>
@@ -1538,6 +1556,15 @@
   </si>
   <si>
     <t>92.86%</t>
+  </si>
+  <si>
+    <t>OCNG-640</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>58.33%</t>
   </si>
   <si>
     <t>OCNG-646</t>
@@ -1898,7 +1925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H348"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2370,16 +2397,16 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>3.227</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2390,24 +2417,24 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>93</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>96</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2418,24 +2445,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" t="s">
-        <v>100</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2446,24 +2473,24 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
         <v>102</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -2510,338 +2537,338 @@
         <v>106</v>
       </c>
       <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="n">
         <v>2.674</v>
       </c>
-      <c r="D58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D61" t="s">
         <v>109</v>
       </c>
-      <c r="G58" t="s">
+      <c r="E61" t="s">
         <v>110</v>
       </c>
-      <c r="H58" t="s">
+      <c r="F61" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
+      <c r="G61" t="s">
         <v>112</v>
       </c>
-      <c r="C59" t="n">
-        <v>2.688</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="H61" t="s">
         <v>113</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
         <v>119</v>
       </c>
-      <c r="C62" t="n">
-        <v>2.993</v>
-      </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
         <v>120</v>
-      </c>
-      <c r="E62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.9923</v>
-      </c>
-      <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.917</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.9923</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" t="s">
         <v>135</v>
       </c>
-      <c r="C65" t="n">
-        <v>2.885</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
         <v>136</v>
-      </c>
-      <c r="E65" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" t="s">
         <v>142</v>
       </c>
-      <c r="C68" t="n">
-        <v>2.7605</v>
-      </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
         <v>143</v>
-      </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.786</v>
-      </c>
-      <c r="D69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>2.713</v>
+        <v>2.7605</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H71" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.786</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" t="s">
         <v>164</v>
       </c>
-      <c r="C72" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="H74" t="s">
         <v>165</v>
-      </c>
-      <c r="E72" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72" t="s">
-        <v>165</v>
-      </c>
-      <c r="H72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="n">
         <v>3.4096</v>
       </c>
-      <c r="D75" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="D78" t="s">
         <v>172</v>
       </c>
-      <c r="G75" t="s">
+      <c r="E78" t="s">
         <v>173</v>
       </c>
-      <c r="H75" t="s">
+      <c r="F78" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G78" t="s">
         <v>175</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H78" t="s">
         <v>176</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C79" t="n">
-        <v>2.673</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" t="s">
         <v>178</v>
       </c>
-      <c r="E79" t="s">
-        <v>179</v>
-      </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -2849,111 +2876,111 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.673</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" t="s">
         <v>183</v>
       </c>
-      <c r="C82" t="n">
-        <v>2.946</v>
-      </c>
-      <c r="D82" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F82" t="s">
-        <v>122</v>
-      </c>
-      <c r="G82" t="s">
-        <v>186</v>
-      </c>
       <c r="H82" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C85" t="n">
-        <v>3.018</v>
+        <v>2.946</v>
       </c>
       <c r="D85" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" t="s">
         <v>189</v>
-      </c>
-      <c r="E85" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" t="s">
-        <v>191</v>
-      </c>
-      <c r="G85" t="s">
-        <v>192</v>
-      </c>
-      <c r="H85" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" t="s">
+        <v>194</v>
+      </c>
+      <c r="H88" t="s">
         <v>195</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="D88" t="s">
-        <v>196</v>
-      </c>
-      <c r="E88" t="s">
-        <v>197</v>
-      </c>
-      <c r="F88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G88" t="s">
-        <v>151</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="D91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" t="s">
         <v>200</v>
       </c>
-      <c r="C91" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E91" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" t="s">
-        <v>192</v>
-      </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -2961,83 +2988,83 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" t="s">
         <v>203</v>
       </c>
-      <c r="C94" t="n">
-        <v>2.641</v>
-      </c>
-      <c r="D94" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" t="s">
-        <v>205</v>
-      </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G94" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="D97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97" t="s">
+        <v>134</v>
+      </c>
+      <c r="G97" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" t="s">
         <v>209</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="D97" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" t="s">
-        <v>211</v>
-      </c>
-      <c r="F97" t="s">
-        <v>212</v>
-      </c>
-      <c r="G97" t="s">
-        <v>213</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="B100" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C100" t="n">
-        <v>2.797</v>
+        <v>2.585</v>
       </c>
       <c r="D100" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" t="s">
         <v>215</v>
-      </c>
-      <c r="E100" t="s">
-        <v>216</v>
-      </c>
-      <c r="F100" t="s">
-        <v>217</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -3045,83 +3072,83 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="B103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C103" t="n">
-        <v>3.056</v>
+        <v>2.25</v>
       </c>
       <c r="D103" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="E103" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G103" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="C106" t="n">
-        <v>2.518</v>
+        <v>2.797</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E106" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="G106" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C109" t="n">
-        <v>3.684</v>
+        <v>3.056</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
@@ -3129,161 +3156,161 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C112" t="n">
-        <v>2.368</v>
+        <v>2.518</v>
       </c>
       <c r="D112" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E112" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="G112" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="H112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" t="s">
         <v>238</v>
       </c>
-      <c r="C115" t="n">
-        <v>2.5555</v>
-      </c>
-      <c r="D115" t="s">
-        <v>239</v>
-      </c>
-      <c r="E115" t="s">
-        <v>198</v>
-      </c>
       <c r="F115" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="C118" t="n">
-        <v>3.31</v>
+        <v>2.368</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F118" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>2.5555</v>
       </c>
       <c r="D121" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C124" t="n">
-        <v>2.8173</v>
+        <v>3.31</v>
       </c>
       <c r="D124" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" t="s">
         <v>251</v>
       </c>
-      <c r="E124" t="s">
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
         <v>252</v>
-      </c>
-      <c r="F124" t="s">
-        <v>253</v>
-      </c>
-      <c r="G124" t="s">
-        <v>254</v>
-      </c>
-      <c r="H124" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="C127" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="E127" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -3297,167 +3324,167 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C130" t="n">
-        <v>3.333</v>
+        <v>2.8173</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="H130" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C133" t="n">
-        <v>3.006</v>
+        <v>3.833</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>269</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="C136" t="n">
-        <v>3.526</v>
+        <v>2.389</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="F136" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="G136" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>3.857</v>
+        <v>3.333</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="C142" t="n">
-        <v>3.769</v>
+        <v>3.006</v>
       </c>
       <c r="D142" t="s">
+        <v>271</v>
+      </c>
+      <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
+        <v>273</v>
+      </c>
+      <c r="G142" t="s">
         <v>274</v>
       </c>
-      <c r="E142" t="s">
-        <v>204</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="B145" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C145" t="n">
-        <v>3.9</v>
+        <v>3.526</v>
       </c>
       <c r="D145" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -3470,19 +3497,19 @@
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="C148" t="n">
-        <v>3.667</v>
+        <v>3.857</v>
       </c>
       <c r="D148" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
@@ -3493,21 +3520,21 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>3.769</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -3521,21 +3548,21 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="C154" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -3549,24 +3576,24 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C157" t="n">
-        <v>3.364</v>
+        <v>3.667</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -3577,21 +3604,21 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C160" t="n">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -3603,414 +3630,414 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>257</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4</v>
-      </c>
-      <c r="D161" t="s">
-        <v>87</v>
-      </c>
-      <c r="E161" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" t="s">
-        <v>14</v>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>283</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2.7397</v>
-      </c>
-      <c r="D164" t="s">
-        <v>284</v>
-      </c>
-      <c r="E164" t="s">
-        <v>285</v>
-      </c>
-      <c r="F164" t="s">
-        <v>198</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="B163" t="s">
+        <v>248</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" t="s">
+        <v>178</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
         <v>286</v>
-      </c>
-      <c r="H164" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>287</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2.8807</v>
-      </c>
-      <c r="D165" t="s">
-        <v>288</v>
-      </c>
-      <c r="E165" t="s">
-        <v>289</v>
-      </c>
-      <c r="F165" t="s">
-        <v>290</v>
-      </c>
-      <c r="G165" t="s">
-        <v>291</v>
-      </c>
-      <c r="H165" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="C166" t="n">
-        <v>2.6715</v>
+        <v>3.364</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>296</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D167" t="s">
-        <v>297</v>
-      </c>
-      <c r="E167" t="s">
-        <v>298</v>
-      </c>
-      <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>14</v>
-      </c>
-      <c r="H167" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>299</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.2057</v>
-      </c>
-      <c r="D168" t="s">
-        <v>300</v>
-      </c>
-      <c r="E168" t="s">
-        <v>301</v>
-      </c>
-      <c r="F168" t="s">
-        <v>302</v>
-      </c>
-      <c r="G168" t="s">
-        <v>303</v>
-      </c>
-      <c r="H168" t="s">
-        <v>304</v>
+      <c r="A168" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="C169" t="n">
-        <v>2.8111</v>
+        <v>3.333</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>311</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>261</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>87</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>312</v>
-      </c>
-      <c r="C172" t="n">
-        <v>2.6629</v>
-      </c>
-      <c r="D172" t="s">
-        <v>313</v>
-      </c>
-      <c r="E172" t="s">
-        <v>314</v>
-      </c>
-      <c r="F172" t="s">
-        <v>315</v>
-      </c>
-      <c r="G172" t="s">
-        <v>316</v>
-      </c>
-      <c r="H172" t="s">
-        <v>317</v>
+      <c r="A172" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="C173" t="n">
-        <v>2.7998</v>
+        <v>2.7397</v>
       </c>
       <c r="D173" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="G173" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>293</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.8807</v>
+      </c>
+      <c r="D174" t="s">
+        <v>294</v>
+      </c>
+      <c r="E174" t="s">
+        <v>295</v>
+      </c>
+      <c r="F174" t="s">
+        <v>296</v>
+      </c>
+      <c r="G174" t="s">
+        <v>297</v>
+      </c>
+      <c r="H174" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>322</v>
+      <c r="B175" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.6715</v>
+      </c>
+      <c r="D175" t="s">
+        <v>290</v>
+      </c>
+      <c r="E175" t="s">
+        <v>271</v>
+      </c>
+      <c r="F175" t="s">
+        <v>300</v>
+      </c>
+      <c r="G175" t="s">
+        <v>292</v>
+      </c>
+      <c r="H175" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C176" t="n">
-        <v>2.6678</v>
+        <v>3.7</v>
       </c>
       <c r="D176" t="s">
+        <v>303</v>
+      </c>
+      <c r="E176" t="s">
+        <v>304</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>305</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.2057</v>
+      </c>
+      <c r="D177" t="s">
+        <v>306</v>
+      </c>
+      <c r="E177" t="s">
+        <v>307</v>
+      </c>
+      <c r="F177" t="s">
+        <v>308</v>
+      </c>
+      <c r="G177" t="s">
+        <v>309</v>
+      </c>
+      <c r="H177" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.8111</v>
+      </c>
+      <c r="D178" t="s">
+        <v>312</v>
+      </c>
+      <c r="E178" t="s">
+        <v>313</v>
+      </c>
+      <c r="F178" t="s">
+        <v>314</v>
+      </c>
+      <c r="G178" t="s">
+        <v>315</v>
+      </c>
+      <c r="H178" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.6629</v>
+      </c>
+      <c r="D181" t="s">
+        <v>319</v>
+      </c>
+      <c r="E181" t="s">
+        <v>320</v>
+      </c>
+      <c r="F181" t="s">
+        <v>321</v>
+      </c>
+      <c r="G181" t="s">
+        <v>322</v>
+      </c>
+      <c r="H181" t="s">
         <v>323</v>
-      </c>
-      <c r="E176" t="s">
-        <v>324</v>
-      </c>
-      <c r="F176" t="s">
-        <v>68</v>
-      </c>
-      <c r="G176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.3252</v>
-      </c>
-      <c r="D179" t="s">
-        <v>328</v>
-      </c>
-      <c r="E179" t="s">
-        <v>329</v>
-      </c>
-      <c r="F179" t="s">
-        <v>330</v>
-      </c>
-      <c r="G179" t="s">
-        <v>331</v>
-      </c>
-      <c r="H179" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C182" t="n">
-        <v>2.549</v>
+        <v>2.7998</v>
       </c>
       <c r="D182" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E182" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="G182" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H182" t="s">
-        <v>337</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="C185" t="n">
-        <v>2.6072</v>
+        <v>2.6678</v>
       </c>
       <c r="D185" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="G185" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C188" t="n">
-        <v>2.125</v>
+        <v>2.3252</v>
       </c>
       <c r="D188" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E188" t="s">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G188" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="H188" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C191" t="n">
-        <v>2.6</v>
+        <v>2.549</v>
       </c>
       <c r="D191" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>17</v>
       </c>
       <c r="G191" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="H191" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C194" t="n">
-        <v>2.546</v>
+        <v>2.6072</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="E194" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="F194" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G194" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H194" t="s">
         <v>14</v>
@@ -4018,154 +4045,154 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
+        <v>350</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D197" t="s">
+        <v>351</v>
+      </c>
+      <c r="E197" t="s">
+        <v>81</v>
+      </c>
+      <c r="F197" t="s">
+        <v>352</v>
+      </c>
+      <c r="G197" t="s">
+        <v>193</v>
+      </c>
+      <c r="H197" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="B200" t="s">
+        <v>355</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>356</v>
+      </c>
+      <c r="E200" t="s">
+        <v>357</v>
+      </c>
+      <c r="F200" t="s">
         <v>358</v>
       </c>
-      <c r="C197" t="n">
+      <c r="G200" t="s">
+        <v>274</v>
+      </c>
+      <c r="H200" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>360</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="D203" t="s">
+        <v>329</v>
+      </c>
+      <c r="E203" t="s">
+        <v>199</v>
+      </c>
+      <c r="F203" t="s">
+        <v>361</v>
+      </c>
+      <c r="G203" t="s">
+        <v>362</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" t="n">
         <v>3.158</v>
       </c>
-      <c r="D197" t="s">
-        <v>359</v>
-      </c>
-      <c r="E197" t="s">
-        <v>360</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="D206" t="s">
+        <v>365</v>
+      </c>
+      <c r="E206" t="s">
+        <v>366</v>
+      </c>
+      <c r="F206" t="s">
         <v>76</v>
       </c>
-      <c r="G197" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" t="s">
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>305</v>
-      </c>
-      <c r="C198" t="n">
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>311</v>
+      </c>
+      <c r="C207" t="n">
         <v>3.118</v>
       </c>
-      <c r="D198" t="s">
-        <v>361</v>
-      </c>
-      <c r="E198" t="s">
-        <v>362</v>
-      </c>
-      <c r="F198" t="s">
-        <v>363</v>
-      </c>
-      <c r="G198" t="s">
-        <v>14</v>
-      </c>
-      <c r="H198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>296</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D199" t="s">
-        <v>39</v>
-      </c>
-      <c r="E199" t="s">
-        <v>39</v>
-      </c>
-      <c r="F199" t="s">
-        <v>204</v>
-      </c>
-      <c r="G199" t="s">
-        <v>14</v>
-      </c>
-      <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>365</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.7385</v>
-      </c>
-      <c r="D202" t="s">
-        <v>73</v>
-      </c>
-      <c r="E202" t="s">
-        <v>236</v>
-      </c>
-      <c r="F202" t="s">
-        <v>75</v>
-      </c>
-      <c r="G202" t="s">
-        <v>366</v>
-      </c>
-      <c r="H202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
+      <c r="D207" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
+      <c r="E207" t="s">
         <v>368</v>
       </c>
-      <c r="C205" t="n">
-        <v>3.906</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="F207" t="s">
         <v>369</v>
       </c>
-      <c r="E205" t="s">
-        <v>215</v>
-      </c>
-      <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>14</v>
-      </c>
-      <c r="H205" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>370</v>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="B208" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="C208" t="n">
-        <v>3.769</v>
+        <v>3.154</v>
       </c>
       <c r="D208" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="E208" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -4176,80 +4203,80 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" t="s">
+        <v>371</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.7385</v>
+      </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="E211" t="s">
+        <v>241</v>
+      </c>
+      <c r="F211" t="s">
+        <v>75</v>
+      </c>
+      <c r="G211" t="s">
         <v>372</v>
       </c>
-      <c r="C211" t="n">
-        <v>3.0589</v>
-      </c>
-      <c r="D211" t="s">
-        <v>373</v>
-      </c>
-      <c r="E211" t="s">
-        <v>374</v>
-      </c>
-      <c r="F211" t="s">
-        <v>375</v>
-      </c>
-      <c r="G211" t="s">
-        <v>14</v>
-      </c>
       <c r="H211" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C214" t="n">
-        <v>3.199</v>
+        <v>3.906</v>
       </c>
       <c r="D214" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E214" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F214" t="s">
-        <v>379</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="C217" t="n">
-        <v>3.158</v>
+        <v>3.769</v>
       </c>
       <c r="D217" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E217" t="s">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="F217" t="s">
-        <v>366</v>
+        <v>14</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
@@ -4260,80 +4287,80 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="B220" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>3.0589</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>381</v>
       </c>
       <c r="G220" t="s">
         <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="B223" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C223" t="n">
-        <v>3.778</v>
+        <v>3.199</v>
       </c>
       <c r="D223" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E223" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="B226" t="s">
+        <v>388</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D226" t="s">
+        <v>75</v>
+      </c>
+      <c r="E226" t="s">
         <v>389</v>
       </c>
-      <c r="C226" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D226" t="s">
-        <v>390</v>
-      </c>
-      <c r="E226" t="s">
-        <v>298</v>
-      </c>
       <c r="F226" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="G226" t="s">
         <v>14</v>
@@ -4344,24 +4371,24 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="B229" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C229" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="E229" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G229" t="s">
         <v>14</v>
@@ -4377,16 +4404,16 @@
     </row>
     <row r="232" spans="1:8">
       <c r="B232" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D232" t="s">
         <v>393</v>
       </c>
-      <c r="C232" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D232" t="s">
-        <v>394</v>
-      </c>
       <c r="E232" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
@@ -4400,24 +4427,24 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="B235" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="C235" t="n">
-        <v>3.875</v>
+        <v>3.5</v>
       </c>
       <c r="D235" t="s">
         <v>396</v>
       </c>
       <c r="E235" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G235" t="s">
         <v>14</v>
@@ -4433,19 +4460,19 @@
     </row>
     <row r="238" spans="1:8">
       <c r="B238" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C238" t="n">
-        <v>3.769</v>
+        <v>2.8</v>
       </c>
       <c r="D238" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="E238" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
@@ -4456,21 +4483,21 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
+        <v>399</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D241" t="s">
         <v>400</v>
       </c>
-      <c r="C241" t="n">
-        <v>4</v>
-      </c>
-      <c r="D241" t="s">
-        <v>87</v>
-      </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="F241" t="s">
         <v>14</v>
@@ -4489,16 +4516,16 @@
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
+        <v>340</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D244" t="s">
         <v>402</v>
       </c>
-      <c r="C244" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D244" t="s">
-        <v>390</v>
-      </c>
       <c r="E244" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -4520,19 +4547,19 @@
         <v>404</v>
       </c>
       <c r="C247" t="n">
-        <v>2.6308</v>
+        <v>3.769</v>
       </c>
       <c r="D247" t="s">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="E247" t="s">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="F247" t="s">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="G247" t="s">
-        <v>408</v>
+        <v>14</v>
       </c>
       <c r="H247" t="s">
         <v>14</v>
@@ -4540,24 +4567,24 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="B250" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="C250" t="n">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>410</v>
+        <v>87</v>
       </c>
       <c r="E250" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="G250" t="s">
         <v>14</v>
@@ -4568,27 +4595,27 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="B253" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="C253" t="n">
-        <v>3.3845</v>
+        <v>3.6</v>
       </c>
       <c r="D253" t="s">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F253" t="s">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="G253" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="H253" t="s">
         <v>14</v>
@@ -4596,27 +4623,27 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="B256" t="s">
+        <v>410</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.6308</v>
+      </c>
+      <c r="D256" t="s">
+        <v>411</v>
+      </c>
+      <c r="E256" t="s">
+        <v>412</v>
+      </c>
+      <c r="F256" t="s">
         <v>413</v>
       </c>
-      <c r="C256" t="n">
-        <v>3.148</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="G256" t="s">
         <v>414</v>
-      </c>
-      <c r="E256" t="s">
-        <v>415</v>
-      </c>
-      <c r="F256" t="s">
-        <v>191</v>
-      </c>
-      <c r="G256" t="s">
-        <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>14</v>
@@ -4624,24 +4651,24 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="B259" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C259" t="n">
-        <v>3.714</v>
+        <v>3.64</v>
       </c>
       <c r="D259" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
       <c r="E259" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="F259" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="G259" t="s">
         <v>14</v>
@@ -4657,22 +4684,22 @@
     </row>
     <row r="262" spans="1:8">
       <c r="B262" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="C262" t="n">
-        <v>3.714</v>
+        <v>3.3845</v>
       </c>
       <c r="D262" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="E262" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="H262" t="s">
         <v>14</v>
@@ -4680,27 +4707,27 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="B265" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="C265" t="n">
-        <v>3.643</v>
+        <v>3.148</v>
       </c>
       <c r="D265" t="s">
+        <v>420</v>
+      </c>
+      <c r="E265" t="s">
         <v>421</v>
       </c>
-      <c r="E265" t="s">
-        <v>422</v>
-      </c>
       <c r="F265" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="H265" t="s">
         <v>14</v>
@@ -4708,24 +4735,24 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="B268" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="C268" t="n">
-        <v>3.902</v>
+        <v>3.714</v>
       </c>
       <c r="D268" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E268" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="G268" t="s">
         <v>14</v>
@@ -4736,21 +4763,21 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="B271" t="s">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="C271" t="n">
-        <v>3.727</v>
+        <v>3.714</v>
       </c>
       <c r="D271" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E271" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F271" t="s">
         <v>14</v>
@@ -4764,22 +4791,22 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="B274" t="s">
+        <v>355</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D274" t="s">
+        <v>427</v>
+      </c>
+      <c r="E274" t="s">
         <v>428</v>
       </c>
-      <c r="C274" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D274" t="s">
-        <v>394</v>
-      </c>
-      <c r="E274" t="s">
-        <v>269</v>
-      </c>
       <c r="F274" t="s">
         <v>14</v>
       </c>
@@ -4790,64 +4817,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
-      <c r="B275" t="s">
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
         <v>429</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D275" t="s">
-        <v>430</v>
-      </c>
-      <c r="E275" t="s">
-        <v>241</v>
-      </c>
-      <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>14</v>
-      </c>
-      <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>431</v>
-      </c>
-      <c r="C276" t="n">
-        <v>4</v>
-      </c>
-      <c r="D276" t="s">
-        <v>87</v>
-      </c>
-      <c r="E276" t="s">
-        <v>14</v>
-      </c>
-      <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>14</v>
-      </c>
-      <c r="H276" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="B277" t="s">
-        <v>209</v>
+        <v>430</v>
       </c>
       <c r="C277" t="n">
-        <v>4</v>
+        <v>3.902</v>
       </c>
       <c r="D277" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="E277" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F277" t="s">
         <v>14</v>
@@ -4859,64 +4845,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
-      <c r="B278" t="s">
-        <v>432</v>
-      </c>
-      <c r="C278" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D278" t="s">
-        <v>47</v>
-      </c>
-      <c r="E278" t="s">
-        <v>433</v>
-      </c>
-      <c r="F278" t="s">
-        <v>14</v>
-      </c>
-      <c r="G278" t="s">
-        <v>14</v>
-      </c>
-      <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>400</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.732</v>
-      </c>
-      <c r="D279" t="s">
-        <v>434</v>
-      </c>
-      <c r="E279" t="s">
-        <v>14</v>
-      </c>
-      <c r="F279" t="s">
-        <v>111</v>
-      </c>
-      <c r="G279" t="s">
-        <v>14</v>
-      </c>
-      <c r="H279" t="s">
-        <v>435</v>
+      <c r="A279" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>3.727</v>
       </c>
       <c r="D280" t="s">
-        <v>87</v>
+        <v>432</v>
       </c>
       <c r="E280" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F280" t="s">
         <v>14</v>
@@ -4928,64 +4873,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>264</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D281" t="s">
-        <v>297</v>
-      </c>
-      <c r="E281" t="s">
-        <v>298</v>
-      </c>
-      <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>14</v>
-      </c>
-      <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="282" spans="1:8">
-      <c r="B282" t="s">
-        <v>244</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D282" t="s">
-        <v>437</v>
-      </c>
-      <c r="E282" t="s">
-        <v>438</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>269</v>
-      </c>
-      <c r="H282" t="s">
-        <v>14</v>
+      <c r="A282" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>3.923</v>
       </c>
       <c r="D283" t="s">
-        <v>87</v>
+        <v>400</v>
       </c>
       <c r="E283" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="F283" t="s">
         <v>14</v>
@@ -4999,16 +4903,16 @@
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C284" t="n">
-        <v>4</v>
+        <v>3.917</v>
       </c>
       <c r="D284" t="s">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="E284" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="F284" t="s">
         <v>14</v>
@@ -5022,13 +4926,13 @@
     </row>
     <row r="285" spans="1:8">
       <c r="B285" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="C285" t="n">
-        <v>3.778</v>
+        <v>4</v>
       </c>
       <c r="D285" t="s">
-        <v>441</v>
+        <v>87</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
@@ -5040,12 +4944,12 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="B286" t="s">
-        <v>385</v>
+        <v>211</v>
       </c>
       <c r="C286" t="n">
         <v>4</v>
@@ -5068,241 +4972,364 @@
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
+        <v>438</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D287" t="s">
+        <v>47</v>
+      </c>
+      <c r="E287" t="s">
+        <v>439</v>
+      </c>
+      <c r="F287" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>406</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.732</v>
+      </c>
+      <c r="D288" t="s">
+        <v>440</v>
+      </c>
+      <c r="E288" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" t="s">
+        <v>113</v>
+      </c>
+      <c r="G288" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="B289" t="s">
         <v>442</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C289" t="n">
         <v>4</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D289" t="s">
         <v>87</v>
       </c>
-      <c r="E287" t="s">
-        <v>14</v>
-      </c>
-      <c r="F287" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" t="s">
-        <v>14</v>
-      </c>
-      <c r="H287" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>443</v>
+      <c r="E289" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C290" t="n">
-        <v>2.605</v>
+        <v>3.7</v>
       </c>
       <c r="D290" t="s">
+        <v>303</v>
+      </c>
+      <c r="E290" t="s">
+        <v>304</v>
+      </c>
+      <c r="F290" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s">
+        <v>14</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>248</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D291" t="s">
+        <v>443</v>
+      </c>
+      <c r="E291" t="s">
         <v>444</v>
       </c>
-      <c r="E290" t="s">
+      <c r="F291" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s">
+        <v>275</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="B292" t="s">
         <v>445</v>
       </c>
-      <c r="F290" t="s">
-        <v>446</v>
-      </c>
-      <c r="G290" t="s">
-        <v>447</v>
-      </c>
-      <c r="H290" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>448</v>
+      <c r="C292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>87</v>
+      </c>
+      <c r="E292" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="B293" t="s">
-        <v>52</v>
+        <v>446</v>
       </c>
       <c r="C293" t="n">
-        <v>2.755</v>
+        <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="E293" t="s">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="G293" t="s">
-        <v>451</v>
+        <v>14</v>
       </c>
       <c r="H293" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>57</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D294" t="s">
+        <v>447</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" t="s">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>452</v>
+      <c r="B295" t="s">
+        <v>391</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>87</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="B296" t="s">
+        <v>448</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>87</v>
+      </c>
+      <c r="E296" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" t="s">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="B299" t="s">
+        <v>211</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="D299" t="s">
+        <v>450</v>
+      </c>
+      <c r="E299" t="s">
+        <v>451</v>
+      </c>
+      <c r="F299" t="s">
+        <v>452</v>
+      </c>
+      <c r="G299" t="s">
+        <v>453</v>
+      </c>
+      <c r="H299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="B302" t="s">
+        <v>52</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="D302" t="s">
+        <v>455</v>
+      </c>
+      <c r="E302" t="s">
+        <v>456</v>
+      </c>
+      <c r="F302" t="s">
+        <v>214</v>
+      </c>
+      <c r="G302" t="s">
+        <v>457</v>
+      </c>
+      <c r="H302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
         <v>15</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C305" t="n">
         <v>3.444</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D305" t="s">
         <v>80</v>
       </c>
-      <c r="E296" t="s">
-        <v>132</v>
-      </c>
-      <c r="F296" t="s">
-        <v>453</v>
-      </c>
-      <c r="G296" t="s">
-        <v>14</v>
-      </c>
-      <c r="H296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="B297" t="s">
-        <v>398</v>
-      </c>
-      <c r="C297" t="n">
-        <v>3.267</v>
-      </c>
-      <c r="D297" t="s">
-        <v>454</v>
-      </c>
-      <c r="E297" t="s">
-        <v>83</v>
-      </c>
-      <c r="F297" t="s">
-        <v>262</v>
-      </c>
-      <c r="G297" t="s">
-        <v>262</v>
-      </c>
-      <c r="H297" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="B300" t="s">
-        <v>200</v>
-      </c>
-      <c r="C300" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D300" t="s">
-        <v>47</v>
-      </c>
-      <c r="E300" t="s">
-        <v>90</v>
-      </c>
-      <c r="F300" t="s">
-        <v>50</v>
-      </c>
-      <c r="G300" t="s">
-        <v>50</v>
-      </c>
-      <c r="H300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="B303" t="s">
-        <v>457</v>
-      </c>
-      <c r="C303" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D303" t="s">
-        <v>298</v>
-      </c>
-      <c r="E303" t="s">
-        <v>458</v>
-      </c>
-      <c r="F303" t="s">
+      <c r="E305" t="s">
+        <v>134</v>
+      </c>
+      <c r="F305" t="s">
         <v>459</v>
       </c>
-      <c r="G303" t="s">
-        <v>458</v>
-      </c>
-      <c r="H303" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>461</v>
+      <c r="G305" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="C306" t="n">
-        <v>3.08</v>
+        <v>3.267</v>
       </c>
       <c r="D306" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E306" t="s">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="F306" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="G306" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="H306" t="s">
-        <v>465</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="B309" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>3.182</v>
       </c>
       <c r="D309" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E309" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G309" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H309" t="s">
         <v>14</v>
@@ -5310,218 +5337,177 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C312" t="n">
-        <v>3.239</v>
+        <v>2.5</v>
       </c>
       <c r="D312" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="E312" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F312" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G312" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H312" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="B313" t="s">
-        <v>471</v>
-      </c>
-      <c r="C313" t="n">
-        <v>2.326</v>
-      </c>
-      <c r="D313" t="s">
-        <v>100</v>
-      </c>
-      <c r="E313" t="s">
-        <v>472</v>
-      </c>
-      <c r="F313" t="s">
-        <v>473</v>
-      </c>
-      <c r="G313" t="s">
-        <v>474</v>
-      </c>
-      <c r="H313" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>432</v>
-      </c>
-      <c r="C314" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="D314" t="s">
-        <v>476</v>
-      </c>
-      <c r="E314" t="s">
-        <v>298</v>
-      </c>
-      <c r="F314" t="s">
-        <v>477</v>
-      </c>
-      <c r="G314" t="s">
-        <v>478</v>
-      </c>
-      <c r="H314" t="s">
-        <v>192</v>
+      <c r="A314" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C315" t="n">
-        <v>3.556</v>
+        <v>3.08</v>
       </c>
       <c r="D315" t="s">
-        <v>221</v>
+        <v>469</v>
       </c>
       <c r="E315" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F315" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="G315" t="s">
         <v>14</v>
       </c>
       <c r="H315" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="B316" t="s">
-        <v>481</v>
-      </c>
-      <c r="C316" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D316" t="s">
-        <v>482</v>
-      </c>
-      <c r="E316" t="s">
-        <v>483</v>
-      </c>
-      <c r="F316" t="s">
-        <v>484</v>
-      </c>
-      <c r="G316" t="s">
-        <v>116</v>
-      </c>
-      <c r="H316" t="s">
-        <v>14</v>
+        <v>471</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>485</v>
-      </c>
-      <c r="C317" t="n">
-        <v>2.8665</v>
-      </c>
-      <c r="D317" t="s">
-        <v>486</v>
-      </c>
-      <c r="E317" t="s">
-        <v>487</v>
-      </c>
-      <c r="F317" t="s">
-        <v>204</v>
-      </c>
-      <c r="G317" t="s">
-        <v>269</v>
-      </c>
-      <c r="H317" t="s">
-        <v>14</v>
+      <c r="A317" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
-        <v>462</v>
+        <v>202</v>
       </c>
       <c r="C318" t="n">
-        <v>2.1825</v>
+        <v>4</v>
       </c>
       <c r="D318" t="s">
-        <v>488</v>
+        <v>87</v>
       </c>
       <c r="E318" t="s">
-        <v>414</v>
+        <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="G318" t="s">
-        <v>489</v>
+        <v>14</v>
       </c>
       <c r="H318" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
+        <v>446</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="D321" t="s">
+        <v>134</v>
+      </c>
+      <c r="E321" t="s">
+        <v>474</v>
+      </c>
+      <c r="F321" t="s">
+        <v>475</v>
+      </c>
+      <c r="G321" t="s">
+        <v>476</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="B322" t="s">
+        <v>477</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="D322" t="s">
+        <v>102</v>
+      </c>
+      <c r="E322" t="s">
+        <v>478</v>
+      </c>
+      <c r="F322" t="s">
+        <v>479</v>
+      </c>
+      <c r="G322" t="s">
+        <v>480</v>
+      </c>
+      <c r="H322" t="s">
         <v>481</v>
       </c>
-      <c r="C321" t="n">
-        <v>3.5608</v>
-      </c>
-      <c r="D321" t="s">
-        <v>491</v>
-      </c>
-      <c r="E321" t="s">
-        <v>492</v>
-      </c>
-      <c r="F321" t="s">
-        <v>493</v>
-      </c>
-      <c r="G321" t="s">
-        <v>494</v>
-      </c>
-      <c r="H321" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" t="s">
-        <v>496</v>
+      <c r="B323" t="s">
+        <v>438</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="D323" t="s">
+        <v>482</v>
+      </c>
+      <c r="E323" t="s">
+        <v>304</v>
+      </c>
+      <c r="F323" t="s">
+        <v>483</v>
+      </c>
+      <c r="G323" t="s">
+        <v>484</v>
+      </c>
+      <c r="H323" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C324" t="n">
-        <v>3.7905</v>
+        <v>3.556</v>
       </c>
       <c r="D324" t="s">
-        <v>498</v>
+        <v>226</v>
       </c>
       <c r="E324" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="F324" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
       <c r="G324" t="s">
         <v>14</v>
@@ -5530,82 +5516,123 @@
         <v>14</v>
       </c>
     </row>
+    <row r="325" spans="1:8">
+      <c r="B325" t="s">
+        <v>487</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D325" t="s">
+        <v>488</v>
+      </c>
+      <c r="E325" t="s">
+        <v>489</v>
+      </c>
+      <c r="F325" t="s">
+        <v>490</v>
+      </c>
+      <c r="G325" t="s">
+        <v>118</v>
+      </c>
+      <c r="H325" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="326" spans="1:8">
-      <c r="A326" t="s">
-        <v>499</v>
+      <c r="B326" t="s">
+        <v>491</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2.8665</v>
+      </c>
+      <c r="D326" t="s">
+        <v>492</v>
+      </c>
+      <c r="E326" t="s">
+        <v>493</v>
+      </c>
+      <c r="F326" t="s">
+        <v>206</v>
+      </c>
+      <c r="G326" t="s">
+        <v>275</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="B327" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C327" t="n">
-        <v>3.182</v>
+        <v>2.1825</v>
       </c>
       <c r="D327" t="s">
-        <v>47</v>
+        <v>494</v>
       </c>
       <c r="E327" t="s">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="F327" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="G327" t="s">
-        <v>14</v>
+        <v>495</v>
       </c>
       <c r="H327" t="s">
-        <v>501</v>
+        <v>234</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="B330" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="C330" t="n">
-        <v>2.95</v>
+        <v>3.5608</v>
       </c>
       <c r="D330" t="s">
-        <v>198</v>
+        <v>497</v>
       </c>
       <c r="E330" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F330" t="s">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="G330" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H330" t="s">
-        <v>14</v>
+        <v>501</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C333" t="n">
-        <v>3.45</v>
+        <v>3.7905</v>
       </c>
       <c r="D333" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E333" t="s">
-        <v>459</v>
+        <v>325</v>
       </c>
       <c r="F333" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G333" t="s">
         <v>14</v>
@@ -5616,30 +5643,30 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="B336" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C336" t="n">
-        <v>3.929</v>
+        <v>3.182</v>
       </c>
       <c r="D336" t="s">
+        <v>47</v>
+      </c>
+      <c r="E336" t="s">
+        <v>92</v>
+      </c>
+      <c r="F336" t="s">
+        <v>93</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
         <v>507</v>
-      </c>
-      <c r="E336" t="s">
-        <v>151</v>
-      </c>
-      <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
-        <v>14</v>
-      </c>
-      <c r="H336" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -5649,19 +5676,19 @@
     </row>
     <row r="339" spans="1:8">
       <c r="B339" t="s">
+        <v>435</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D339" t="s">
+        <v>200</v>
+      </c>
+      <c r="E339" t="s">
         <v>509</v>
       </c>
-      <c r="C339" t="n">
-        <v>4</v>
-      </c>
-      <c r="D339" t="s">
-        <v>87</v>
-      </c>
-      <c r="E339" t="s">
-        <v>14</v>
-      </c>
       <c r="F339" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="G339" t="s">
         <v>14</v>
@@ -5677,19 +5704,19 @@
     </row>
     <row r="342" spans="1:8">
       <c r="B342" t="s">
+        <v>506</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D342" t="s">
         <v>511</v>
       </c>
-      <c r="C342" t="n">
-        <v>4</v>
-      </c>
-      <c r="D342" t="s">
-        <v>87</v>
-      </c>
       <c r="E342" t="s">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="F342" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G342" t="s">
         <v>14</v>
@@ -5705,16 +5732,16 @@
     </row>
     <row r="345" spans="1:8">
       <c r="B345" t="s">
+        <v>506</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D345" t="s">
         <v>513</v>
       </c>
-      <c r="C345" t="n">
-        <v>4</v>
-      </c>
-      <c r="D345" t="s">
-        <v>87</v>
-      </c>
       <c r="E345" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F345" t="s">
         <v>14</v>
@@ -5736,21 +5763,133 @@
         <v>515</v>
       </c>
       <c r="C348" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="D348" t="s">
+        <v>516</v>
+      </c>
+      <c r="E348" t="s">
+        <v>200</v>
+      </c>
+      <c r="F348" t="s">
+        <v>81</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="B351" t="s">
+        <v>518</v>
+      </c>
+      <c r="C351" t="n">
         <v>4</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D351" t="s">
         <v>87</v>
       </c>
-      <c r="E348" t="s">
-        <v>14</v>
-      </c>
-      <c r="F348" t="s">
-        <v>14</v>
-      </c>
-      <c r="G348" t="s">
-        <v>14</v>
-      </c>
-      <c r="H348" t="s">
+      <c r="E351" t="s">
+        <v>14</v>
+      </c>
+      <c r="F351" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s">
+        <v>14</v>
+      </c>
+      <c r="H351" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="B354" t="s">
+        <v>520</v>
+      </c>
+      <c r="C354" t="n">
+        <v>4</v>
+      </c>
+      <c r="D354" t="s">
+        <v>87</v>
+      </c>
+      <c r="E354" t="s">
+        <v>14</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>14</v>
+      </c>
+      <c r="H354" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="B357" t="s">
+        <v>522</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4</v>
+      </c>
+      <c r="D357" t="s">
+        <v>87</v>
+      </c>
+      <c r="E357" t="s">
+        <v>14</v>
+      </c>
+      <c r="F357" t="s">
+        <v>14</v>
+      </c>
+      <c r="G357" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>524</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>87</v>
+      </c>
+      <c r="E360" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" t="s">
         <v>14</v>
       </c>
     </row>
